--- a/static/Models/Classification/Equation/PSU Bank.xlsx
+++ b/static/Models/Classification/Equation/PSU Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-3.62712550163269</v>
+        <v>-4.042668342590332</v>
       </c>
       <c r="C2">
-        <v>-6.41770601272583</v>
+        <v>-5.958924770355225</v>
       </c>
       <c r="D2">
-        <v>-3.150807619094849</v>
+        <v>-3.026833534240723</v>
       </c>
       <c r="E2">
-        <v>-5.34088134765625</v>
+        <v>-5.329953193664551</v>
       </c>
       <c r="F2">
-        <v>2.933345794677734</v>
+        <v>3.091080188751221</v>
       </c>
       <c r="G2">
-        <v>1.949132561683655</v>
+        <v>2.01372504234314</v>
       </c>
       <c r="H2">
-        <v>1.108211636543274</v>
+        <v>0.5731037855148315</v>
       </c>
       <c r="I2">
-        <v>3.802892208099365</v>
+        <v>3.392823219299316</v>
       </c>
       <c r="J2">
-        <v>-3.26700496673584</v>
+        <v>-3.722111225128174</v>
       </c>
       <c r="K2">
-        <v>-0.8063743710517883</v>
+        <v>-0.7324211597442627</v>
       </c>
       <c r="L2">
-        <v>-0.2974554896354675</v>
+        <v>-0.7347169518470764</v>
       </c>
       <c r="M2">
-        <v>-2.121941328048706</v>
+        <v>-2.553096055984497</v>
       </c>
       <c r="N2">
-        <v>2.505942583084106</v>
+        <v>2.944417953491211</v>
       </c>
       <c r="O2">
-        <v>4.8319091796875</v>
+        <v>4.08973217010498</v>
       </c>
       <c r="P2">
-        <v>-0.2889617085456848</v>
+        <v>0.2370195984840393</v>
       </c>
       <c r="Q2">
-        <v>15.11581707000732</v>
+        <v>15.96120166778564</v>
       </c>
       <c r="R2">
-        <v>-0.4246833026409149</v>
+        <v>-0.6399862766265869</v>
       </c>
       <c r="S2">
-        <v>-7.840742111206055</v>
+        <v>-7.605200290679932</v>
       </c>
       <c r="T2">
-        <v>-6.887454986572266</v>
+        <v>-6.579270362854004</v>
       </c>
       <c r="U2">
-        <v>-19.3045825958252</v>
+        <v>-20.25595664978027</v>
       </c>
       <c r="V2">
-        <v>-0.3771664500236511</v>
+        <v>-0.04594965651631355</v>
       </c>
       <c r="W2">
-        <v>0.8548837900161743</v>
+        <v>0.4181327819824219</v>
       </c>
       <c r="X2">
-        <v>-0.6363042593002319</v>
+        <v>-1.235292434692383</v>
       </c>
       <c r="Y2">
-        <v>9.23431396484375</v>
+        <v>9.979172706604004</v>
       </c>
       <c r="Z2">
-        <v>-6.137465476989746</v>
+        <v>-5.44069766998291</v>
       </c>
       <c r="AA2">
-        <v>-0.8329681754112244</v>
+        <v>-1.402876973152161</v>
       </c>
       <c r="AB2">
-        <v>-2.157679319381714</v>
+        <v>-2.922703266143799</v>
       </c>
       <c r="AC2">
-        <v>0.0702383890748024</v>
+        <v>-0.2871545553207397</v>
       </c>
       <c r="AD2">
-        <v>-1.465939044952393</v>
+        <v>-1.218602657318115</v>
       </c>
       <c r="AE2">
-        <v>-4.429222583770752</v>
+        <v>-5.168250560760498</v>
       </c>
       <c r="AF2">
-        <v>-0.06493782252073288</v>
+        <v>-0.1076781079173088</v>
       </c>
       <c r="AG2">
-        <v>-3.460803031921387</v>
+        <v>-3.870665550231934</v>
       </c>
       <c r="AH2">
-        <v>-25.5793342590332</v>
+        <v>-25.88947486877441</v>
       </c>
       <c r="AI2">
-        <v>14.40275382995605</v>
+        <v>14.87732219696045</v>
       </c>
       <c r="AJ2">
-        <v>2.560608148574829</v>
+        <v>2.142271757125854</v>
       </c>
       <c r="AK2">
-        <v>3.822293519973755</v>
+        <v>3.054350137710571</v>
       </c>
       <c r="AL2">
-        <v>0.5447319149971008</v>
+        <v>0.4921617209911346</v>
       </c>
       <c r="AM2">
-        <v>-1.464491724967957</v>
+        <v>-2.12463641166687</v>
       </c>
       <c r="AN2">
-        <v>7.821972370147705</v>
+        <v>7.691003322601318</v>
       </c>
       <c r="AO2">
-        <v>-1.098295092582703</v>
+        <v>-1.512376427650452</v>
       </c>
       <c r="AP2">
-        <v>-0.4574151337146759</v>
+        <v>-0.04894384741783142</v>
       </c>
       <c r="AQ2">
-        <v>1.603617906570435</v>
+        <v>2.1104736328125</v>
       </c>
       <c r="AR2">
-        <v>5.360634803771973</v>
+        <v>6.25141429901123</v>
       </c>
       <c r="AS2">
-        <v>-12.93058300018311</v>
+        <v>-12.86321830749512</v>
       </c>
       <c r="AT2">
-        <v>-5.931198120117188</v>
+        <v>-5.646713256835938</v>
       </c>
       <c r="AU2">
-        <v>-3.865584135055542</v>
+        <v>-3.181000947952271</v>
       </c>
       <c r="AV2">
-        <v>4.618210792541504</v>
+        <v>5.171741962432861</v>
       </c>
       <c r="AW2">
-        <v>-6.270522117614746</v>
+        <v>-6.247766017913818</v>
       </c>
       <c r="AX2">
-        <v>-1.12564492225647</v>
+        <v>-0.4100310206413269</v>
       </c>
       <c r="AY2">
-        <v>-1.395399212837219</v>
+        <v>-1.624348521232605</v>
       </c>
       <c r="AZ2">
-        <v>7.164247035980225</v>
+        <v>6.866621017456055</v>
       </c>
       <c r="BA2">
-        <v>-8.968513488769531</v>
+        <v>-9.484045028686523</v>
       </c>
       <c r="BB2">
-        <v>-4.004138946533203</v>
+        <v>-3.345513820648193</v>
       </c>
       <c r="BC2">
-        <v>2.282044172286987</v>
+        <v>1.70586097240448</v>
       </c>
       <c r="BD2">
-        <v>-0.9915199875831604</v>
+        <v>-0.823284924030304</v>
       </c>
       <c r="BE2">
-        <v>-1.899834871292114</v>
+        <v>-2.540568590164185</v>
       </c>
       <c r="BF2">
-        <v>-5.48553466796875</v>
+        <v>-4.900693416595459</v>
       </c>
       <c r="BG2">
-        <v>-0.9503710269927979</v>
+        <v>-0.7128924131393433</v>
       </c>
       <c r="BH2">
-        <v>-2.385906219482422</v>
+        <v>-1.680772423744202</v>
       </c>
       <c r="BI2">
-        <v>-1.497855067253113</v>
+        <v>-1.289449572563171</v>
       </c>
       <c r="BJ2">
-        <v>-13.28524303436279</v>
+        <v>-13.4700403213501</v>
       </c>
       <c r="BK2">
-        <v>-1.558188915252686</v>
+        <v>-2.339074373245239</v>
       </c>
       <c r="BL2">
-        <v>-4.866352558135986</v>
+        <v>-5.26554536819458</v>
       </c>
       <c r="BM2">
-        <v>-4.810259819030762</v>
+        <v>-4.565659046173096</v>
       </c>
       <c r="BN2">
-        <v>3.260648488998413</v>
+        <v>3.221290111541748</v>
       </c>
       <c r="BO2">
-        <v>-5.173723697662354</v>
+        <v>-4.654344081878662</v>
       </c>
       <c r="BP2">
-        <v>-8.176220893859863</v>
+        <v>-8.100757598876953</v>
       </c>
       <c r="BQ2">
-        <v>1.971889615058899</v>
+        <v>1.60492217540741</v>
       </c>
       <c r="BR2">
-        <v>1.292377591133118</v>
+        <v>0.7473500370979309</v>
       </c>
       <c r="BS2">
-        <v>3.560279369354248</v>
+        <v>3.867412090301514</v>
       </c>
       <c r="BT2">
-        <v>-0.7721714377403259</v>
+        <v>-1.393335700035095</v>
       </c>
       <c r="BU2">
-        <v>-0.3577787280082703</v>
+        <v>-0.1842943578958511</v>
       </c>
       <c r="BV2">
-        <v>-0.4105659127235413</v>
+        <v>-0.4560688734054565</v>
       </c>
       <c r="BW2">
-        <v>-0.2141704261302948</v>
+        <v>-0.1641981303691864</v>
       </c>
       <c r="BX2">
-        <v>-10.32432270050049</v>
+        <v>-11.0021800994873</v>
       </c>
       <c r="BY2">
-        <v>-1.637588977813721</v>
+        <v>-0.9936302304267883</v>
       </c>
       <c r="BZ2">
-        <v>-3.483640193939209</v>
+        <v>-3.780592203140259</v>
       </c>
       <c r="CA2">
-        <v>-5.20880126953125</v>
+        <v>-5.160417079925537</v>
       </c>
       <c r="CB2">
-        <v>-8.168300628662109</v>
+        <v>-8.17164134979248</v>
       </c>
       <c r="CC2">
-        <v>0.7259483933448792</v>
+        <v>0.8594077229499817</v>
       </c>
       <c r="CD2">
-        <v>-1.179360508918762</v>
+        <v>-0.5082261562347412</v>
       </c>
       <c r="CE2">
-        <v>2.552000522613525</v>
+        <v>1.948846101760864</v>
       </c>
       <c r="CF2">
-        <v>-3.739504814147949</v>
+        <v>-4.523161888122559</v>
       </c>
       <c r="CG2">
-        <v>-1.848929524421692</v>
+        <v>-1.045478224754333</v>
       </c>
       <c r="CH2">
-        <v>-1.714119911193848</v>
+        <v>-2.503561496734619</v>
       </c>
       <c r="CI2">
-        <v>0.3101700246334076</v>
+        <v>0.5212247967720032</v>
       </c>
       <c r="CJ2">
-        <v>5.939886093139648</v>
+        <v>5.741509437561035</v>
       </c>
       <c r="CK2">
-        <v>-4.326930522918701</v>
+        <v>-4.301630020141602</v>
       </c>
       <c r="CL2">
-        <v>2.925497531890869</v>
+        <v>2.838012218475342</v>
       </c>
       <c r="CM2">
-        <v>5.937081336975098</v>
+        <v>5.474730014801025</v>
       </c>
       <c r="CN2">
-        <v>-0.2038590461015701</v>
+        <v>0.1738630086183548</v>
       </c>
       <c r="CO2">
-        <v>-1.4284588098526</v>
+        <v>-1.020369172096252</v>
       </c>
       <c r="CP2">
-        <v>5.257298469543457</v>
+        <v>5.561827182769775</v>
       </c>
       <c r="CQ2">
-        <v>-1.8083735704422</v>
+        <v>-1.896420359611511</v>
       </c>
       <c r="CR2">
-        <v>0.08744500577449799</v>
+        <v>0.2323274910449982</v>
       </c>
       <c r="CS2">
-        <v>1.328379034996033</v>
+        <v>1.460966467857361</v>
       </c>
       <c r="CT2">
-        <v>1.137375354766846</v>
+        <v>1.197212815284729</v>
       </c>
       <c r="CU2">
-        <v>1.715957522392273</v>
+        <v>1.284482836723328</v>
       </c>
       <c r="CV2">
-        <v>-0.4670924246311188</v>
+        <v>-0.002827885095030069</v>
       </c>
       <c r="CW2">
-        <v>-3.024902105331421</v>
+        <v>-2.080867290496826</v>
       </c>
       <c r="CX2">
-        <v>-1.788382172584534</v>
+        <v>-1.045547127723694</v>
       </c>
       <c r="CY2">
-        <v>3.788883924484253</v>
+        <v>3.791997909545898</v>
       </c>
       <c r="CZ2">
-        <v>-0.1727922558784485</v>
+        <v>-0.7759584188461304</v>
       </c>
       <c r="DA2">
-        <v>-0.08057369291782379</v>
+        <v>-0.222972959280014</v>
       </c>
       <c r="DB2">
-        <v>-7.508628368377686</v>
+        <v>-8.02956485748291</v>
       </c>
       <c r="DC2">
-        <v>-0.5188667774200439</v>
+        <v>-0.06533826142549515</v>
       </c>
       <c r="DD2">
-        <v>-22.77622985839844</v>
+        <v>-23.46677780151367</v>
       </c>
       <c r="DE2">
-        <v>0.5198735594749451</v>
+        <v>0.4484738707542419</v>
       </c>
       <c r="DF2">
-        <v>4.52086877822876</v>
+        <v>3.919618844985962</v>
       </c>
       <c r="DG2">
-        <v>1.428340673446655</v>
+        <v>0.6294040679931641</v>
       </c>
       <c r="DH2">
-        <v>-0.2738667130470276</v>
+        <v>0.5881726741790771</v>
       </c>
       <c r="DI2">
-        <v>1.48612117767334</v>
+        <v>0.6659188866615295</v>
       </c>
       <c r="DJ2">
-        <v>-8.014960289001465</v>
+        <v>-7.824410438537598</v>
       </c>
       <c r="DK2">
-        <v>-10.37341022491455</v>
+        <v>-10.60122203826904</v>
       </c>
       <c r="DL2">
-        <v>2.086322069168091</v>
+        <v>2.505547285079956</v>
       </c>
       <c r="DM2">
-        <v>-0.5964690446853638</v>
+        <v>-0.8997902274131775</v>
       </c>
       <c r="DN2">
-        <v>-0.3399916589260101</v>
+        <v>-0.1278181225061417</v>
       </c>
       <c r="DO2">
-        <v>-6.10762357711792</v>
+        <v>-6.16508960723877</v>
       </c>
       <c r="DP2">
-        <v>0.248733177781105</v>
+        <v>-0.1668096780776978</v>
       </c>
       <c r="DQ2">
-        <v>0.3497724235057831</v>
+        <v>0.3335911929607391</v>
       </c>
       <c r="DR2">
-        <v>-0.9707744717597961</v>
+        <v>-0.9567221999168396</v>
       </c>
       <c r="DS2">
-        <v>-16.18482208251953</v>
+        <v>-15.47382831573486</v>
       </c>
       <c r="DT2">
-        <v>0.6424826383590698</v>
+        <v>0.8820228576660156</v>
       </c>
       <c r="DU2">
-        <v>0.2414051741361618</v>
+        <v>0.4509807527065277</v>
       </c>
       <c r="DV2">
-        <v>-0.1534581631422043</v>
+        <v>-0.6363357901573181</v>
       </c>
       <c r="DW2">
-        <v>3.893270015716553</v>
+        <v>3.909680128097534</v>
       </c>
       <c r="DX2">
-        <v>0.4420962333679199</v>
+        <v>0.472933828830719</v>
       </c>
       <c r="DY2">
-        <v>1.17248547077179</v>
+        <v>0.8475845456123352</v>
       </c>
       <c r="DZ2">
-        <v>1.196600556373596</v>
+        <v>1.287883877754211</v>
       </c>
       <c r="EA2">
-        <v>8.326796531677246</v>
+        <v>8.056233406066895</v>
       </c>
       <c r="EB2">
-        <v>-1.070170283317566</v>
+        <v>-0.8192970752716064</v>
       </c>
       <c r="EC2">
-        <v>0.2961004376411438</v>
+        <v>-0.3033102452754974</v>
       </c>
       <c r="ED2">
-        <v>-1.558537840843201</v>
+        <v>-1.257254242897034</v>
       </c>
       <c r="EE2">
-        <v>0.5680200457572937</v>
+        <v>0.7781247496604919</v>
       </c>
       <c r="EF2">
-        <v>4.259217262268066</v>
+        <v>4.406185150146484</v>
       </c>
       <c r="EG2">
-        <v>-8.602468490600586</v>
+        <v>-9.08286190032959</v>
       </c>
       <c r="EH2">
-        <v>-21.20577239990234</v>
+        <v>-21.49944496154785</v>
       </c>
       <c r="EI2">
-        <v>-5.529852867126465</v>
+        <v>-5.523627281188965</v>
       </c>
       <c r="EJ2">
-        <v>-2.656767129898071</v>
+        <v>-2.093467473983765</v>
       </c>
       <c r="EK2">
-        <v>3.40653657913208</v>
+        <v>3.180194854736328</v>
       </c>
       <c r="EL2">
-        <v>-1.268555402755737</v>
+        <v>-0.8810105323791504</v>
       </c>
       <c r="EM2">
-        <v>-1.960227847099304</v>
+        <v>-1.814745664596558</v>
       </c>
       <c r="EN2">
-        <v>10.94400405883789</v>
+        <v>10.51347637176514</v>
       </c>
       <c r="EO2">
-        <v>-7.945405006408691</v>
+        <v>-7.403919696807861</v>
       </c>
       <c r="EP2">
-        <v>-6.872859001159668</v>
+        <v>-6.515483856201172</v>
       </c>
       <c r="EQ2">
-        <v>2.358063936233521</v>
+        <v>2.473015785217285</v>
       </c>
       <c r="ER2">
-        <v>-0.6282808184623718</v>
+        <v>-1.014018535614014</v>
       </c>
       <c r="ES2">
-        <v>-19.02304458618164</v>
+        <v>-18.85455322265625</v>
       </c>
       <c r="ET2">
-        <v>0.08149828761816025</v>
+        <v>0.910286009311676</v>
       </c>
       <c r="EU2">
-        <v>-6.011824607849121</v>
+        <v>-5.971028804779053</v>
       </c>
       <c r="EV2">
-        <v>-4.962282657623291</v>
+        <v>-4.4501953125</v>
       </c>
       <c r="EW2">
-        <v>-5.191232681274414</v>
+        <v>-5.213335514068604</v>
       </c>
       <c r="EX2">
-        <v>-6.663388729095459</v>
+        <v>-6.711139678955078</v>
       </c>
       <c r="EY2">
-        <v>0.9541592001914978</v>
+        <v>0.934390664100647</v>
       </c>
       <c r="EZ2">
-        <v>-10.30971431732178</v>
+        <v>-10.91613483428955</v>
       </c>
       <c r="FA2">
-        <v>1.221687197685242</v>
+        <v>0.2753880023956299</v>
       </c>
       <c r="FB2">
-        <v>-1.730667233467102</v>
+        <v>-1.897751331329346</v>
       </c>
       <c r="FC2">
-        <v>-4.801979064941406</v>
+        <v>-4.335586071014404</v>
       </c>
       <c r="FD2">
-        <v>-0.5269208550453186</v>
+        <v>-1.117779493331909</v>
       </c>
       <c r="FE2">
-        <v>-0.4369921684265137</v>
+        <v>0.2477264106273651</v>
       </c>
       <c r="FF2">
-        <v>-17.1448802947998</v>
+        <v>-16.78476905822754</v>
       </c>
       <c r="FG2">
-        <v>-4.832813739776611</v>
+        <v>-5.711104869842529</v>
       </c>
       <c r="FH2">
-        <v>1.193234801292419</v>
+        <v>0.5635340809822083</v>
       </c>
       <c r="FI2">
-        <v>0.08282128721475601</v>
+        <v>0.7274590134620667</v>
       </c>
       <c r="FJ2">
-        <v>-4.808609485626221</v>
+        <v>-4.640296936035156</v>
       </c>
       <c r="FK2">
-        <v>-4.414216995239258</v>
+        <v>-3.551281213760376</v>
       </c>
       <c r="FL2">
-        <v>-5.489996910095215</v>
+        <v>-5.470720767974854</v>
       </c>
       <c r="FM2">
-        <v>-0.06341042369604111</v>
+        <v>-0.1929080635309219</v>
       </c>
       <c r="FN2">
-        <v>-3.282557964324951</v>
+        <v>-3.901400327682495</v>
       </c>
       <c r="FO2">
-        <v>0.6991583108901978</v>
+        <v>0.4270834028720856</v>
       </c>
       <c r="FP2">
-        <v>0.5024005770683289</v>
+        <v>1.035490870475769</v>
       </c>
       <c r="FQ2">
-        <v>-0.369016021490097</v>
+        <v>0.02295364253222942</v>
       </c>
       <c r="FR2">
-        <v>0.09012401849031448</v>
+        <v>-0.09637165069580078</v>
       </c>
       <c r="FS2">
-        <v>-0.3666346073150635</v>
+        <v>-0.3446260690689087</v>
       </c>
       <c r="FT2">
-        <v>-0.7666625380516052</v>
+        <v>-0.2401751130819321</v>
       </c>
       <c r="FU2">
-        <v>-2.538616180419922</v>
+        <v>-2.2655189037323</v>
       </c>
       <c r="FV2">
-        <v>-2.683370590209961</v>
+        <v>-2.476850986480713</v>
       </c>
       <c r="FW2">
-        <v>1.591041088104248</v>
+        <v>1.729590892791748</v>
       </c>
       <c r="FX2">
-        <v>1.415376543998718</v>
+        <v>0.6340728402137756</v>
       </c>
       <c r="FY2">
-        <v>0.3568036258220673</v>
+        <v>-0.3438331186771393</v>
       </c>
       <c r="FZ2">
-        <v>-0.2029622942209244</v>
+        <v>0.001376675558276474</v>
       </c>
       <c r="GA2">
-        <v>-7.948023796081543</v>
+        <v>-7.587822914123535</v>
       </c>
       <c r="GB2">
-        <v>1.6488116979599</v>
+        <v>1.434535622596741</v>
       </c>
       <c r="GC2">
-        <v>-5.463875770568848</v>
+        <v>-5.729645252227783</v>
       </c>
       <c r="GD2">
-        <v>-9.637686729431152</v>
+        <v>-10.09722709655762</v>
       </c>
       <c r="GE2">
-        <v>-1.153597831726074</v>
+        <v>-0.6999495625495911</v>
       </c>
       <c r="GF2">
-        <v>4.007092475891113</v>
+        <v>3.671037197113037</v>
       </c>
       <c r="GG2">
-        <v>-9.012151718139648</v>
+        <v>-9.505892753601074</v>
       </c>
       <c r="GH2">
-        <v>2.2739417552948</v>
+        <v>3.12677788734436</v>
       </c>
       <c r="GI2">
-        <v>-6.869448184967041</v>
+        <v>-7.782149314880371</v>
       </c>
       <c r="GJ2">
-        <v>-0.3516266644001007</v>
+        <v>-0.4370095431804657</v>
       </c>
       <c r="GK2">
-        <v>-7.781237125396729</v>
+        <v>-7.447125434875488</v>
       </c>
       <c r="GL2">
-        <v>-5.521383762359619</v>
+        <v>-5.237377166748047</v>
       </c>
       <c r="GM2">
-        <v>-13.91688632965088</v>
+        <v>-13.23833179473877</v>
       </c>
       <c r="GN2">
-        <v>-13.42911911010742</v>
+        <v>-13.32154369354248</v>
       </c>
       <c r="GO2">
-        <v>3.359125375747681</v>
+        <v>3.972796201705933</v>
       </c>
       <c r="GP2">
-        <v>0.8620720505714417</v>
+        <v>1.089024543762207</v>
       </c>
       <c r="GQ2">
-        <v>1.692421317100525</v>
+        <v>2.175493478775024</v>
       </c>
       <c r="GR2">
-        <v>-1.880318760871887</v>
+        <v>-1.649407982826233</v>
       </c>
       <c r="GS2">
-        <v>-1.990182757377625</v>
+        <v>-1.194457530975342</v>
       </c>
       <c r="GT2">
-        <v>1.135664701461792</v>
+        <v>1.638363003730774</v>
       </c>
       <c r="GU2">
-        <v>-0.9047343134880066</v>
+        <v>-1.193654298782349</v>
       </c>
       <c r="GV2">
-        <v>0.291946679353714</v>
+        <v>0.888547420501709</v>
       </c>
       <c r="GW2">
-        <v>-2.874773263931274</v>
+        <v>-3.850155830383301</v>
       </c>
       <c r="GX2">
-        <v>-0.0565880760550499</v>
+        <v>-0.03766146302223206</v>
       </c>
       <c r="GY2">
-        <v>-3.718886852264404</v>
+        <v>-3.471620082855225</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/PSU Bank.xlsx
+++ b/static/Models/Classification/Equation/PSU Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-4.042668342590332</v>
+        <v>-3.682226181030273</v>
       </c>
       <c r="C2">
-        <v>-5.958924770355225</v>
+        <v>-6.327625751495361</v>
       </c>
       <c r="D2">
-        <v>-3.026833534240723</v>
+        <v>-3.335887908935547</v>
       </c>
       <c r="E2">
-        <v>-5.329953193664551</v>
+        <v>-5.506609916687012</v>
       </c>
       <c r="F2">
-        <v>3.091080188751221</v>
+        <v>2.726651906967163</v>
       </c>
       <c r="G2">
-        <v>2.01372504234314</v>
+        <v>2.400064468383789</v>
       </c>
       <c r="H2">
-        <v>0.5731037855148315</v>
+        <v>0.3038133382797241</v>
       </c>
       <c r="I2">
-        <v>3.392823219299316</v>
+        <v>3.038501501083374</v>
       </c>
       <c r="J2">
-        <v>-3.722111225128174</v>
+        <v>-3.559215784072876</v>
       </c>
       <c r="K2">
-        <v>-0.7324211597442627</v>
+        <v>-0.3092277348041534</v>
       </c>
       <c r="L2">
-        <v>-0.7347169518470764</v>
+        <v>-0.7868738174438477</v>
       </c>
       <c r="M2">
-        <v>-2.553096055984497</v>
+        <v>-2.424862146377563</v>
       </c>
       <c r="N2">
-        <v>2.944417953491211</v>
+        <v>3.106532096862793</v>
       </c>
       <c r="O2">
-        <v>4.08973217010498</v>
+        <v>3.794848918914795</v>
       </c>
       <c r="P2">
-        <v>0.2370195984840393</v>
+        <v>0.2038534134626389</v>
       </c>
       <c r="Q2">
-        <v>15.96120166778564</v>
+        <v>15.574951171875</v>
       </c>
       <c r="R2">
-        <v>-0.6399862766265869</v>
+        <v>-0.4010242223739624</v>
       </c>
       <c r="S2">
-        <v>-7.605200290679932</v>
+        <v>-7.584962844848633</v>
       </c>
       <c r="T2">
-        <v>-6.579270362854004</v>
+        <v>-6.974464416503906</v>
       </c>
       <c r="U2">
-        <v>-20.25595664978027</v>
+        <v>-20.11611747741699</v>
       </c>
       <c r="V2">
-        <v>-0.04594965651631355</v>
+        <v>0.3291619122028351</v>
       </c>
       <c r="W2">
-        <v>0.4181327819824219</v>
+        <v>0.3878020644187927</v>
       </c>
       <c r="X2">
-        <v>-1.235292434692383</v>
+        <v>-1.133737087249756</v>
       </c>
       <c r="Y2">
-        <v>9.979172706604004</v>
+        <v>9.550769805908203</v>
       </c>
       <c r="Z2">
-        <v>-5.44069766998291</v>
+        <v>-5.774702548980713</v>
       </c>
       <c r="AA2">
-        <v>-1.402876973152161</v>
+        <v>-1.052044987678528</v>
       </c>
       <c r="AB2">
-        <v>-2.922703266143799</v>
+        <v>-3.261722326278687</v>
       </c>
       <c r="AC2">
-        <v>-0.2871545553207397</v>
+        <v>0.007014312315732241</v>
       </c>
       <c r="AD2">
-        <v>-1.218602657318115</v>
+        <v>-1.624055743217468</v>
       </c>
       <c r="AE2">
-        <v>-5.168250560760498</v>
+        <v>-5.440311431884766</v>
       </c>
       <c r="AF2">
-        <v>-0.1076781079173088</v>
+        <v>-0.5249888896942139</v>
       </c>
       <c r="AG2">
-        <v>-3.870665550231934</v>
+        <v>-4.035317897796631</v>
       </c>
       <c r="AH2">
-        <v>-25.88947486877441</v>
+        <v>-25.59390640258789</v>
       </c>
       <c r="AI2">
-        <v>14.87732219696045</v>
+        <v>14.47269248962402</v>
       </c>
       <c r="AJ2">
-        <v>2.142271757125854</v>
+        <v>1.736388444900513</v>
       </c>
       <c r="AK2">
-        <v>3.054350137710571</v>
+        <v>3.252337455749512</v>
       </c>
       <c r="AL2">
-        <v>0.4921617209911346</v>
+        <v>0.7819514870643616</v>
       </c>
       <c r="AM2">
-        <v>-2.12463641166687</v>
+        <v>-2.403087854385376</v>
       </c>
       <c r="AN2">
-        <v>7.691003322601318</v>
+        <v>7.803933620452881</v>
       </c>
       <c r="AO2">
-        <v>-1.512376427650452</v>
+        <v>-1.413225173950195</v>
       </c>
       <c r="AP2">
-        <v>-0.04894384741783142</v>
+        <v>-0.3503100275993347</v>
       </c>
       <c r="AQ2">
-        <v>2.1104736328125</v>
+        <v>1.975916385650635</v>
       </c>
       <c r="AR2">
-        <v>6.25141429901123</v>
+        <v>6.198075771331787</v>
       </c>
       <c r="AS2">
-        <v>-12.86321830749512</v>
+        <v>-12.72874641418457</v>
       </c>
       <c r="AT2">
-        <v>-5.646713256835938</v>
+        <v>-5.253128051757812</v>
       </c>
       <c r="AU2">
-        <v>-3.181000947952271</v>
+        <v>-3.006248474121094</v>
       </c>
       <c r="AV2">
-        <v>5.171741962432861</v>
+        <v>4.840721607208252</v>
       </c>
       <c r="AW2">
-        <v>-6.247766017913818</v>
+        <v>-5.877045631408691</v>
       </c>
       <c r="AX2">
-        <v>-0.4100310206413269</v>
+        <v>-0.6397504806518555</v>
       </c>
       <c r="AY2">
-        <v>-1.624348521232605</v>
+        <v>-1.262411117553711</v>
       </c>
       <c r="AZ2">
-        <v>6.866621017456055</v>
+        <v>6.472956657409668</v>
       </c>
       <c r="BA2">
-        <v>-9.484045028686523</v>
+        <v>-9.905950546264648</v>
       </c>
       <c r="BB2">
-        <v>-3.345513820648193</v>
+        <v>-3.75235915184021</v>
       </c>
       <c r="BC2">
-        <v>1.70586097240448</v>
+        <v>1.294301271438599</v>
       </c>
       <c r="BD2">
-        <v>-0.823284924030304</v>
+        <v>-1.229876637458801</v>
       </c>
       <c r="BE2">
-        <v>-2.540568590164185</v>
+        <v>-2.252561807632446</v>
       </c>
       <c r="BF2">
-        <v>-4.900693416595459</v>
+        <v>-5.317348003387451</v>
       </c>
       <c r="BG2">
-        <v>-0.7128924131393433</v>
+        <v>-1.116652488708496</v>
       </c>
       <c r="BH2">
-        <v>-1.680772423744202</v>
+        <v>-1.784175395965576</v>
       </c>
       <c r="BI2">
-        <v>-1.289449572563171</v>
+        <v>-1.632165551185608</v>
       </c>
       <c r="BJ2">
-        <v>-13.4700403213501</v>
+        <v>-13.03717994689941</v>
       </c>
       <c r="BK2">
-        <v>-2.339074373245239</v>
+        <v>-2.188745498657227</v>
       </c>
       <c r="BL2">
-        <v>-5.26554536819458</v>
+        <v>-4.890436172485352</v>
       </c>
       <c r="BM2">
-        <v>-4.565659046173096</v>
+        <v>-4.97807788848877</v>
       </c>
       <c r="BN2">
-        <v>3.221290111541748</v>
+        <v>2.839338064193726</v>
       </c>
       <c r="BO2">
-        <v>-4.654344081878662</v>
+        <v>-4.652255535125732</v>
       </c>
       <c r="BP2">
-        <v>-8.100757598876953</v>
+        <v>-7.800891876220703</v>
       </c>
       <c r="BQ2">
-        <v>1.60492217540741</v>
+        <v>1.514057278633118</v>
       </c>
       <c r="BR2">
-        <v>0.7473500370979309</v>
+        <v>0.3356926739215851</v>
       </c>
       <c r="BS2">
-        <v>3.867412090301514</v>
+        <v>3.812107563018799</v>
       </c>
       <c r="BT2">
-        <v>-1.393335700035095</v>
+        <v>-1.092015624046326</v>
       </c>
       <c r="BU2">
-        <v>-0.1842943578958511</v>
+        <v>-0.5682945251464844</v>
       </c>
       <c r="BV2">
-        <v>-0.4560688734054565</v>
+        <v>-0.08209026604890823</v>
       </c>
       <c r="BW2">
-        <v>-0.1641981303691864</v>
+        <v>-0.6033862829208374</v>
       </c>
       <c r="BX2">
-        <v>-11.0021800994873</v>
+        <v>-10.64680004119873</v>
       </c>
       <c r="BY2">
-        <v>-0.9936302304267883</v>
+        <v>-1.009021878242493</v>
       </c>
       <c r="BZ2">
-        <v>-3.780592203140259</v>
+        <v>-3.998278617858887</v>
       </c>
       <c r="CA2">
-        <v>-5.160417079925537</v>
+        <v>-5.060242176055908</v>
       </c>
       <c r="CB2">
-        <v>-8.17164134979248</v>
+        <v>-7.997650623321533</v>
       </c>
       <c r="CC2">
-        <v>0.8594077229499817</v>
+        <v>0.4512847065925598</v>
       </c>
       <c r="CD2">
-        <v>-0.5082261562347412</v>
+        <v>-0.1883143782615662</v>
       </c>
       <c r="CE2">
-        <v>1.948846101760864</v>
+        <v>2.014323711395264</v>
       </c>
       <c r="CF2">
-        <v>-4.523161888122559</v>
+        <v>-4.419083595275879</v>
       </c>
       <c r="CG2">
-        <v>-1.045478224754333</v>
+        <v>-1.073356866836548</v>
       </c>
       <c r="CH2">
-        <v>-2.503561496734619</v>
+        <v>-2.051982641220093</v>
       </c>
       <c r="CI2">
-        <v>0.5212247967720032</v>
+        <v>0.1020186841487885</v>
       </c>
       <c r="CJ2">
-        <v>5.741509437561035</v>
+        <v>5.456756591796875</v>
       </c>
       <c r="CK2">
-        <v>-4.301630020141602</v>
+        <v>-4.672839641571045</v>
       </c>
       <c r="CL2">
-        <v>2.838012218475342</v>
+        <v>2.514636278152466</v>
       </c>
       <c r="CM2">
-        <v>5.474730014801025</v>
+        <v>5.803780555725098</v>
       </c>
       <c r="CN2">
-        <v>0.1738630086183548</v>
+        <v>0.595247745513916</v>
       </c>
       <c r="CO2">
-        <v>-1.020369172096252</v>
+        <v>-1.404356837272644</v>
       </c>
       <c r="CP2">
-        <v>5.561827182769775</v>
+        <v>5.106802940368652</v>
       </c>
       <c r="CQ2">
-        <v>-1.896420359611511</v>
+        <v>-2.229604005813599</v>
       </c>
       <c r="CR2">
-        <v>0.2323274910449982</v>
+        <v>0.6254773736000061</v>
       </c>
       <c r="CS2">
-        <v>1.460966467857361</v>
+        <v>1.048706769943237</v>
       </c>
       <c r="CT2">
-        <v>1.197212815284729</v>
+        <v>0.7856793403625488</v>
       </c>
       <c r="CU2">
-        <v>1.284482836723328</v>
+        <v>1.784265637397766</v>
       </c>
       <c r="CV2">
-        <v>-0.002827885095030069</v>
+        <v>-0.06584992259740829</v>
       </c>
       <c r="CW2">
-        <v>-2.080867290496826</v>
+        <v>-2.367812156677246</v>
       </c>
       <c r="CX2">
-        <v>-1.045547127723694</v>
+        <v>-0.6658971905708313</v>
       </c>
       <c r="CY2">
-        <v>3.791997909545898</v>
+        <v>4.183010101318359</v>
       </c>
       <c r="CZ2">
-        <v>-0.7759584188461304</v>
+        <v>-0.4092405140399933</v>
       </c>
       <c r="DA2">
-        <v>-0.222972959280014</v>
+        <v>-0.5950718522071838</v>
       </c>
       <c r="DB2">
-        <v>-8.02956485748291</v>
+        <v>-7.58962869644165</v>
       </c>
       <c r="DC2">
-        <v>-0.06533826142549515</v>
+        <v>0.07797357439994812</v>
       </c>
       <c r="DD2">
-        <v>-23.46677780151367</v>
+        <v>-23.12038230895996</v>
       </c>
       <c r="DE2">
-        <v>0.4484738707542419</v>
+        <v>0.03714306652545929</v>
       </c>
       <c r="DF2">
-        <v>3.919618844985962</v>
+        <v>4.307548522949219</v>
       </c>
       <c r="DG2">
-        <v>0.6294040679931641</v>
+        <v>0.3016830682754517</v>
       </c>
       <c r="DH2">
-        <v>0.5881726741790771</v>
+        <v>0.1777958869934082</v>
       </c>
       <c r="DI2">
-        <v>0.6659188866615295</v>
+        <v>0.9037553668022156</v>
       </c>
       <c r="DJ2">
-        <v>-7.824410438537598</v>
+        <v>-8.20596981048584</v>
       </c>
       <c r="DK2">
-        <v>-10.60122203826904</v>
+        <v>-10.24932479858398</v>
       </c>
       <c r="DL2">
-        <v>2.505547285079956</v>
+        <v>2.801781177520752</v>
       </c>
       <c r="DM2">
-        <v>-0.8997902274131775</v>
+        <v>-0.7694898843765259</v>
       </c>
       <c r="DN2">
-        <v>-0.1278181225061417</v>
+        <v>-0.5314619541168213</v>
       </c>
       <c r="DO2">
-        <v>-6.16508960723877</v>
+        <v>-6.41956615447998</v>
       </c>
       <c r="DP2">
-        <v>-0.1668096780776978</v>
+        <v>0.1936305165290833</v>
       </c>
       <c r="DQ2">
-        <v>0.3335911929607391</v>
+        <v>-0.05866128206253052</v>
       </c>
       <c r="DR2">
-        <v>-0.9567221999168396</v>
+        <v>-0.8885632753372192</v>
       </c>
       <c r="DS2">
-        <v>-15.47382831573486</v>
+        <v>-15.79200172424316</v>
       </c>
       <c r="DT2">
-        <v>0.8820228576660156</v>
+        <v>0.5071727633476257</v>
       </c>
       <c r="DU2">
-        <v>0.4509807527065277</v>
+        <v>0.3473282754421234</v>
       </c>
       <c r="DV2">
-        <v>-0.6363357901573181</v>
+        <v>-0.323287159204483</v>
       </c>
       <c r="DW2">
-        <v>3.909680128097534</v>
+        <v>3.383499145507812</v>
       </c>
       <c r="DX2">
-        <v>0.472933828830719</v>
+        <v>0.06113399937748909</v>
       </c>
       <c r="DY2">
-        <v>0.8475845456123352</v>
+        <v>0.785277247428894</v>
       </c>
       <c r="DZ2">
-        <v>1.287883877754211</v>
+        <v>1.248626470565796</v>
       </c>
       <c r="EA2">
-        <v>8.056233406066895</v>
+        <v>8.317370414733887</v>
       </c>
       <c r="EB2">
-        <v>-0.8192970752716064</v>
+        <v>-1.229814529418945</v>
       </c>
       <c r="EC2">
-        <v>-0.3033102452754974</v>
+        <v>-0.5893256664276123</v>
       </c>
       <c r="ED2">
-        <v>-1.257254242897034</v>
+        <v>-1.648979783058167</v>
       </c>
       <c r="EE2">
-        <v>0.7781247496604919</v>
+        <v>0.3620111644268036</v>
       </c>
       <c r="EF2">
-        <v>4.406185150146484</v>
+        <v>4.034902095794678</v>
       </c>
       <c r="EG2">
-        <v>-9.08286190032959</v>
+        <v>-9.3770751953125</v>
       </c>
       <c r="EH2">
-        <v>-21.49944496154785</v>
+        <v>-21.29253005981445</v>
       </c>
       <c r="EI2">
-        <v>-5.523627281188965</v>
+        <v>-5.887042999267578</v>
       </c>
       <c r="EJ2">
-        <v>-2.093467473983765</v>
+        <v>-2.53436279296875</v>
       </c>
       <c r="EK2">
-        <v>3.180194854736328</v>
+        <v>2.821594476699829</v>
       </c>
       <c r="EL2">
-        <v>-0.8810105323791504</v>
+        <v>-1.284367799758911</v>
       </c>
       <c r="EM2">
-        <v>-1.814745664596558</v>
+        <v>-1.941947937011719</v>
       </c>
       <c r="EN2">
-        <v>10.51347637176514</v>
+        <v>10.21836280822754</v>
       </c>
       <c r="EO2">
-        <v>-7.403919696807861</v>
+        <v>-7.475336074829102</v>
       </c>
       <c r="EP2">
-        <v>-6.515483856201172</v>
+        <v>-6.915413856506348</v>
       </c>
       <c r="EQ2">
-        <v>2.473015785217285</v>
+        <v>2.086743831634521</v>
       </c>
       <c r="ER2">
-        <v>-1.014018535614014</v>
+        <v>-0.7524015307426453</v>
       </c>
       <c r="ES2">
-        <v>-18.85455322265625</v>
+        <v>-18.65799713134766</v>
       </c>
       <c r="ET2">
-        <v>0.910286009311676</v>
+        <v>0.9455313086509705</v>
       </c>
       <c r="EU2">
-        <v>-5.971028804779053</v>
+        <v>-6.364392280578613</v>
       </c>
       <c r="EV2">
-        <v>-4.4501953125</v>
+        <v>-4.277563571929932</v>
       </c>
       <c r="EW2">
-        <v>-5.213335514068604</v>
+        <v>-5.40455961227417</v>
       </c>
       <c r="EX2">
-        <v>-6.711139678955078</v>
+        <v>-6.705180168151855</v>
       </c>
       <c r="EY2">
-        <v>0.934390664100647</v>
+        <v>0.5388090014457703</v>
       </c>
       <c r="EZ2">
-        <v>-10.91613483428955</v>
+        <v>-11.27877044677734</v>
       </c>
       <c r="FA2">
-        <v>0.2753880023956299</v>
+        <v>0.04021359235048294</v>
       </c>
       <c r="FB2">
-        <v>-1.897751331329346</v>
+        <v>-2.303303956985474</v>
       </c>
       <c r="FC2">
-        <v>-4.335586071014404</v>
+        <v>-4.699295520782471</v>
       </c>
       <c r="FD2">
-        <v>-1.117779493331909</v>
+        <v>-0.7524328231811523</v>
       </c>
       <c r="FE2">
-        <v>0.2477264106273651</v>
+        <v>-0.01636658050119877</v>
       </c>
       <c r="FF2">
-        <v>-16.78476905822754</v>
+        <v>-17.08393669128418</v>
       </c>
       <c r="FG2">
-        <v>-5.711104869842529</v>
+        <v>-5.253077983856201</v>
       </c>
       <c r="FH2">
-        <v>0.5635340809822083</v>
+        <v>0.3695840537548065</v>
       </c>
       <c r="FI2">
-        <v>0.7274590134620667</v>
+        <v>0.5372113585472107</v>
       </c>
       <c r="FJ2">
-        <v>-4.640296936035156</v>
+        <v>-4.922042846679688</v>
       </c>
       <c r="FK2">
-        <v>-3.551281213760376</v>
+        <v>-3.934787273406982</v>
       </c>
       <c r="FL2">
-        <v>-5.470720767974854</v>
+        <v>-5.427088260650635</v>
       </c>
       <c r="FM2">
-        <v>-0.1929080635309219</v>
+        <v>-0.004262398928403854</v>
       </c>
       <c r="FN2">
-        <v>-3.901400327682495</v>
+        <v>-3.521109580993652</v>
       </c>
       <c r="FO2">
-        <v>0.4270834028720856</v>
+        <v>0.8038799166679382</v>
       </c>
       <c r="FP2">
-        <v>1.035490870475769</v>
+        <v>0.9622288346290588</v>
       </c>
       <c r="FQ2">
-        <v>0.02295364253222942</v>
+        <v>-0.3749319314956665</v>
       </c>
       <c r="FR2">
-        <v>-0.09637165069580078</v>
+        <v>-0.4979144632816315</v>
       </c>
       <c r="FS2">
-        <v>-0.3446260690689087</v>
+        <v>-0.7459685206413269</v>
       </c>
       <c r="FT2">
-        <v>-0.2401751130819321</v>
+        <v>-0.6179295182228088</v>
       </c>
       <c r="FU2">
-        <v>-2.2655189037323</v>
+        <v>-2.647875308990479</v>
       </c>
       <c r="FV2">
-        <v>-2.476850986480713</v>
+        <v>-2.85700511932373</v>
       </c>
       <c r="FW2">
-        <v>1.729590892791748</v>
+        <v>1.349481582641602</v>
       </c>
       <c r="FX2">
-        <v>0.6340728402137756</v>
+        <v>0.2666502892971039</v>
       </c>
       <c r="FY2">
-        <v>-0.3438331186771393</v>
+        <v>-0.5088711380958557</v>
       </c>
       <c r="FZ2">
-        <v>0.001376675558276474</v>
+        <v>0.342085063457489</v>
       </c>
       <c r="GA2">
-        <v>-7.587822914123535</v>
+        <v>-7.750197410583496</v>
       </c>
       <c r="GB2">
-        <v>1.434535622596741</v>
+        <v>1.825783491134644</v>
       </c>
       <c r="GC2">
-        <v>-5.729645252227783</v>
+        <v>-5.934298992156982</v>
       </c>
       <c r="GD2">
-        <v>-10.09722709655762</v>
+        <v>-10.46570491790771</v>
       </c>
       <c r="GE2">
-        <v>-0.6999495625495911</v>
+        <v>-1.1028733253479</v>
       </c>
       <c r="GF2">
-        <v>3.671037197113037</v>
+        <v>3.864097356796265</v>
       </c>
       <c r="GG2">
-        <v>-9.505892753601074</v>
+        <v>-9.041868209838867</v>
       </c>
       <c r="GH2">
-        <v>3.12677788734436</v>
+        <v>2.864634275436401</v>
       </c>
       <c r="GI2">
-        <v>-7.782149314880371</v>
+        <v>-7.991759777069092</v>
       </c>
       <c r="GJ2">
-        <v>-0.4370095431804657</v>
+        <v>-0.9660766124725342</v>
       </c>
       <c r="GK2">
-        <v>-7.447125434875488</v>
+        <v>-7.846692562103271</v>
       </c>
       <c r="GL2">
-        <v>-5.237377166748047</v>
+        <v>-4.99860954284668</v>
       </c>
       <c r="GM2">
-        <v>-13.23833179473877</v>
+        <v>-13.71309280395508</v>
       </c>
       <c r="GN2">
-        <v>-13.32154369354248</v>
+        <v>-12.90557861328125</v>
       </c>
       <c r="GO2">
-        <v>3.972796201705933</v>
+        <v>3.964053630828857</v>
       </c>
       <c r="GP2">
-        <v>1.089024543762207</v>
+        <v>0.6841474771499634</v>
       </c>
       <c r="GQ2">
-        <v>2.175493478775024</v>
+        <v>1.940520882606506</v>
       </c>
       <c r="GR2">
-        <v>-1.649407982826233</v>
+        <v>-1.409614562988281</v>
       </c>
       <c r="GS2">
-        <v>-1.194457530975342</v>
+        <v>-1.382444739341736</v>
       </c>
       <c r="GT2">
-        <v>1.638363003730774</v>
+        <v>1.646708011627197</v>
       </c>
       <c r="GU2">
-        <v>-1.193654298782349</v>
+        <v>-0.7922505736351013</v>
       </c>
       <c r="GV2">
-        <v>0.888547420501709</v>
+        <v>1.358485698699951</v>
       </c>
       <c r="GW2">
-        <v>-3.850155830383301</v>
+        <v>-3.743237495422363</v>
       </c>
       <c r="GX2">
-        <v>-0.03766146302223206</v>
+        <v>-0.354473352432251</v>
       </c>
       <c r="GY2">
-        <v>-3.471620082855225</v>
+        <v>-3.874901533126831</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/PSU Bank.xlsx
+++ b/static/Models/Classification/Equation/PSU Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-3.682226181030273</v>
+        <v>-2.844377517700195</v>
       </c>
       <c r="C2">
-        <v>-6.327625751495361</v>
+        <v>-6.906585693359375</v>
       </c>
       <c r="D2">
-        <v>-3.335887908935547</v>
+        <v>-2.829782009124756</v>
       </c>
       <c r="E2">
-        <v>-5.506609916687012</v>
+        <v>-6.043951034545898</v>
       </c>
       <c r="F2">
-        <v>2.726651906967163</v>
+        <v>1.406298160552979</v>
       </c>
       <c r="G2">
-        <v>2.400064468383789</v>
+        <v>2.112469673156738</v>
       </c>
       <c r="H2">
-        <v>0.3038133382797241</v>
+        <v>-1.363653421401978</v>
       </c>
       <c r="I2">
-        <v>3.038501501083374</v>
+        <v>3.774837732315063</v>
       </c>
       <c r="J2">
-        <v>-3.559215784072876</v>
+        <v>-3.733935594558716</v>
       </c>
       <c r="K2">
-        <v>-0.3092277348041534</v>
+        <v>-0.5378460884094238</v>
       </c>
       <c r="L2">
-        <v>-0.7868738174438477</v>
+        <v>0.2473437488079071</v>
       </c>
       <c r="M2">
-        <v>-2.424862146377563</v>
+        <v>-2.920865297317505</v>
       </c>
       <c r="N2">
-        <v>3.106532096862793</v>
+        <v>1.99482274055481</v>
       </c>
       <c r="O2">
-        <v>3.794848918914795</v>
+        <v>4.32996129989624</v>
       </c>
       <c r="P2">
-        <v>0.2038534134626389</v>
+        <v>1.79575514793396</v>
       </c>
       <c r="Q2">
-        <v>15.574951171875</v>
+        <v>14.22503757476807</v>
       </c>
       <c r="R2">
-        <v>-0.4010242223739624</v>
+        <v>1.627001523971558</v>
       </c>
       <c r="S2">
-        <v>-7.584962844848633</v>
+        <v>-6.841488361358643</v>
       </c>
       <c r="T2">
-        <v>-6.974464416503906</v>
+        <v>-7.31316614151001</v>
       </c>
       <c r="U2">
-        <v>-20.11611747741699</v>
+        <v>-21.07472801208496</v>
       </c>
       <c r="V2">
-        <v>0.3291619122028351</v>
+        <v>1.109136939048767</v>
       </c>
       <c r="W2">
-        <v>0.3878020644187927</v>
+        <v>2.071919679641724</v>
       </c>
       <c r="X2">
-        <v>-1.133737087249756</v>
+        <v>-0.6052528023719788</v>
       </c>
       <c r="Y2">
-        <v>9.550769805908203</v>
+        <v>8.733951568603516</v>
       </c>
       <c r="Z2">
-        <v>-5.774702548980713</v>
+        <v>-5.39069938659668</v>
       </c>
       <c r="AA2">
-        <v>-1.052044987678528</v>
+        <v>-0.6193340420722961</v>
       </c>
       <c r="AB2">
-        <v>-3.261722326278687</v>
+        <v>-2.424761533737183</v>
       </c>
       <c r="AC2">
-        <v>0.007014312315732241</v>
+        <v>1.012590169906616</v>
       </c>
       <c r="AD2">
-        <v>-1.624055743217468</v>
+        <v>-1.088601589202881</v>
       </c>
       <c r="AE2">
-        <v>-5.440311431884766</v>
+        <v>-3.770006418228149</v>
       </c>
       <c r="AF2">
-        <v>-0.5249888896942139</v>
+        <v>-0.9999094605445862</v>
       </c>
       <c r="AG2">
-        <v>-4.035317897796631</v>
+        <v>-3.98749828338623</v>
       </c>
       <c r="AH2">
-        <v>-25.59390640258789</v>
+        <v>-26.07621192932129</v>
       </c>
       <c r="AI2">
-        <v>14.47269248962402</v>
+        <v>13.83740901947021</v>
       </c>
       <c r="AJ2">
-        <v>1.736388444900513</v>
+        <v>0.321229875087738</v>
       </c>
       <c r="AK2">
-        <v>3.252337455749512</v>
+        <v>2.845805883407593</v>
       </c>
       <c r="AL2">
-        <v>0.7819514870643616</v>
+        <v>0.9533767104148865</v>
       </c>
       <c r="AM2">
-        <v>-2.403087854385376</v>
+        <v>-0.7650359272956848</v>
       </c>
       <c r="AN2">
-        <v>7.803933620452881</v>
+        <v>8.038778305053711</v>
       </c>
       <c r="AO2">
-        <v>-1.413225173950195</v>
+        <v>-1.066860318183899</v>
       </c>
       <c r="AP2">
-        <v>-0.3503100275993347</v>
+        <v>-0.7258840203285217</v>
       </c>
       <c r="AQ2">
-        <v>1.975916385650635</v>
+        <v>0.4898242652416229</v>
       </c>
       <c r="AR2">
-        <v>6.198075771331787</v>
+        <v>6.337847232818604</v>
       </c>
       <c r="AS2">
-        <v>-12.72874641418457</v>
+        <v>-12.12296962738037</v>
       </c>
       <c r="AT2">
-        <v>-5.253128051757812</v>
+        <v>-4.002406597137451</v>
       </c>
       <c r="AU2">
-        <v>-3.006248474121094</v>
+        <v>-2.353270053863525</v>
       </c>
       <c r="AV2">
-        <v>4.840721607208252</v>
+        <v>4.730422496795654</v>
       </c>
       <c r="AW2">
-        <v>-5.877045631408691</v>
+        <v>-6.430533409118652</v>
       </c>
       <c r="AX2">
-        <v>-0.6397504806518555</v>
+        <v>0.06182999163866043</v>
       </c>
       <c r="AY2">
-        <v>-1.262411117553711</v>
+        <v>0.09517806768417358</v>
       </c>
       <c r="AZ2">
-        <v>6.472956657409668</v>
+        <v>5.786249160766602</v>
       </c>
       <c r="BA2">
-        <v>-9.905950546264648</v>
+        <v>-9.424607276916504</v>
       </c>
       <c r="BB2">
-        <v>-3.75235915184021</v>
+        <v>-5.199304580688477</v>
       </c>
       <c r="BC2">
-        <v>1.294301271438599</v>
+        <v>0.4119227826595306</v>
       </c>
       <c r="BD2">
-        <v>-1.229876637458801</v>
+        <v>-0.5664693117141724</v>
       </c>
       <c r="BE2">
-        <v>-2.252561807632446</v>
+        <v>-1.491214990615845</v>
       </c>
       <c r="BF2">
-        <v>-5.317348003387451</v>
+        <v>-6.541094779968262</v>
       </c>
       <c r="BG2">
-        <v>-1.116652488708496</v>
+        <v>-0.3433700799942017</v>
       </c>
       <c r="BH2">
-        <v>-1.784175395965576</v>
+        <v>-3.577202320098877</v>
       </c>
       <c r="BI2">
-        <v>-1.632165551185608</v>
+        <v>-1.218648433685303</v>
       </c>
       <c r="BJ2">
-        <v>-13.03717994689941</v>
+        <v>-11.97742652893066</v>
       </c>
       <c r="BK2">
-        <v>-2.188745498657227</v>
+        <v>-3.477247953414917</v>
       </c>
       <c r="BL2">
-        <v>-4.890436172485352</v>
+        <v>-5.035215854644775</v>
       </c>
       <c r="BM2">
-        <v>-4.97807788848877</v>
+        <v>-4.729895114898682</v>
       </c>
       <c r="BN2">
-        <v>2.839338064193726</v>
+        <v>3.383216381072998</v>
       </c>
       <c r="BO2">
-        <v>-4.652255535125732</v>
+        <v>-4.710408210754395</v>
       </c>
       <c r="BP2">
-        <v>-7.800891876220703</v>
+        <v>-7.24811840057373</v>
       </c>
       <c r="BQ2">
-        <v>1.514057278633118</v>
+        <v>1.972142815589905</v>
       </c>
       <c r="BR2">
-        <v>0.3356926739215851</v>
+        <v>-0.5041831135749817</v>
       </c>
       <c r="BS2">
-        <v>3.812107563018799</v>
+        <v>4.406410694122314</v>
       </c>
       <c r="BT2">
-        <v>-1.092015624046326</v>
+        <v>-0.5832367539405823</v>
       </c>
       <c r="BU2">
-        <v>-0.5682945251464844</v>
+        <v>0.4386703372001648</v>
       </c>
       <c r="BV2">
-        <v>-0.08209026604890823</v>
+        <v>-0.2134557962417603</v>
       </c>
       <c r="BW2">
-        <v>-0.6033862829208374</v>
+        <v>-0.2831132411956787</v>
       </c>
       <c r="BX2">
-        <v>-10.64680004119873</v>
+        <v>-11.08689212799072</v>
       </c>
       <c r="BY2">
-        <v>-1.009021878242493</v>
+        <v>-0.7901679277420044</v>
       </c>
       <c r="BZ2">
-        <v>-3.998278617858887</v>
+        <v>-2.833527565002441</v>
       </c>
       <c r="CA2">
-        <v>-5.060242176055908</v>
+        <v>-4.46466064453125</v>
       </c>
       <c r="CB2">
-        <v>-7.997650623321533</v>
+        <v>-7.581549644470215</v>
       </c>
       <c r="CC2">
-        <v>0.4512847065925598</v>
+        <v>1.212537050247192</v>
       </c>
       <c r="CD2">
-        <v>-0.1883143782615662</v>
+        <v>-0.3788862526416779</v>
       </c>
       <c r="CE2">
-        <v>2.014323711395264</v>
+        <v>2.197628736495972</v>
       </c>
       <c r="CF2">
-        <v>-4.419083595275879</v>
+        <v>-5.637445449829102</v>
       </c>
       <c r="CG2">
-        <v>-1.073356866836548</v>
+        <v>0.4335896968841553</v>
       </c>
       <c r="CH2">
-        <v>-2.051982641220093</v>
+        <v>-1.083134889602661</v>
       </c>
       <c r="CI2">
-        <v>0.1020186841487885</v>
+        <v>0.9952161312103271</v>
       </c>
       <c r="CJ2">
-        <v>5.456756591796875</v>
+        <v>5.98323392868042</v>
       </c>
       <c r="CK2">
-        <v>-4.672839641571045</v>
+        <v>-4.279775142669678</v>
       </c>
       <c r="CL2">
-        <v>2.514636278152466</v>
+        <v>2.164446592330933</v>
       </c>
       <c r="CM2">
-        <v>5.803780555725098</v>
+        <v>7.032992362976074</v>
       </c>
       <c r="CN2">
-        <v>0.595247745513916</v>
+        <v>0.7802380323410034</v>
       </c>
       <c r="CO2">
-        <v>-1.404356837272644</v>
+        <v>-0.2704212069511414</v>
       </c>
       <c r="CP2">
-        <v>5.106802940368652</v>
+        <v>4.372225284576416</v>
       </c>
       <c r="CQ2">
-        <v>-2.229604005813599</v>
+        <v>-1.188560724258423</v>
       </c>
       <c r="CR2">
-        <v>0.6254773736000061</v>
+        <v>1.887715697288513</v>
       </c>
       <c r="CS2">
-        <v>1.048706769943237</v>
+        <v>1.674939632415771</v>
       </c>
       <c r="CT2">
-        <v>0.7856793403625488</v>
+        <v>1.668229699134827</v>
       </c>
       <c r="CU2">
-        <v>1.784265637397766</v>
+        <v>1.684892177581787</v>
       </c>
       <c r="CV2">
-        <v>-0.06584992259740829</v>
+        <v>1.285022020339966</v>
       </c>
       <c r="CW2">
-        <v>-2.367812156677246</v>
+        <v>-2.418616056442261</v>
       </c>
       <c r="CX2">
-        <v>-0.6658971905708313</v>
+        <v>-1.541080236434937</v>
       </c>
       <c r="CY2">
-        <v>4.183010101318359</v>
+        <v>4.03822660446167</v>
       </c>
       <c r="CZ2">
-        <v>-0.4092405140399933</v>
+        <v>0.4074712693691254</v>
       </c>
       <c r="DA2">
-        <v>-0.5950718522071838</v>
+        <v>0.3128671646118164</v>
       </c>
       <c r="DB2">
-        <v>-7.58962869644165</v>
+        <v>-6.71549129486084</v>
       </c>
       <c r="DC2">
-        <v>0.07797357439994812</v>
+        <v>0.2824043929576874</v>
       </c>
       <c r="DD2">
-        <v>-23.12038230895996</v>
+        <v>-23.97981834411621</v>
       </c>
       <c r="DE2">
-        <v>0.03714306652545929</v>
+        <v>1.114419460296631</v>
       </c>
       <c r="DF2">
-        <v>4.307548522949219</v>
+        <v>3.540368795394897</v>
       </c>
       <c r="DG2">
-        <v>0.3016830682754517</v>
+        <v>1.282585740089417</v>
       </c>
       <c r="DH2">
-        <v>0.1777958869934082</v>
+        <v>0.2831875383853912</v>
       </c>
       <c r="DI2">
-        <v>0.9037553668022156</v>
+        <v>1.499449014663696</v>
       </c>
       <c r="DJ2">
-        <v>-8.20596981048584</v>
+        <v>-8.148794174194336</v>
       </c>
       <c r="DK2">
-        <v>-10.24932479858398</v>
+        <v>-9.648001670837402</v>
       </c>
       <c r="DL2">
-        <v>2.801781177520752</v>
+        <v>3.031264066696167</v>
       </c>
       <c r="DM2">
-        <v>-0.7694898843765259</v>
+        <v>0.2219076752662659</v>
       </c>
       <c r="DN2">
-        <v>-0.5314619541168213</v>
+        <v>0.1351360976696014</v>
       </c>
       <c r="DO2">
-        <v>-6.41956615447998</v>
+        <v>-4.936294078826904</v>
       </c>
       <c r="DP2">
-        <v>0.1936305165290833</v>
+        <v>1.031218767166138</v>
       </c>
       <c r="DQ2">
-        <v>-0.05866128206253052</v>
+        <v>0.8001964092254639</v>
       </c>
       <c r="DR2">
-        <v>-0.8885632753372192</v>
+        <v>-0.2631379663944244</v>
       </c>
       <c r="DS2">
-        <v>-15.79200172424316</v>
+        <v>-16.43336868286133</v>
       </c>
       <c r="DT2">
-        <v>0.5071727633476257</v>
+        <v>1.022446632385254</v>
       </c>
       <c r="DU2">
-        <v>0.3473282754421234</v>
+        <v>0.6368560791015625</v>
       </c>
       <c r="DV2">
-        <v>-0.323287159204483</v>
+        <v>1.008537292480469</v>
       </c>
       <c r="DW2">
-        <v>3.383499145507812</v>
+        <v>1.754754424095154</v>
       </c>
       <c r="DX2">
-        <v>0.06113399937748909</v>
+        <v>0.9350733160972595</v>
       </c>
       <c r="DY2">
-        <v>0.785277247428894</v>
+        <v>1.534252166748047</v>
       </c>
       <c r="DZ2">
-        <v>1.248626470565796</v>
+        <v>2.441242933273315</v>
       </c>
       <c r="EA2">
-        <v>8.317370414733887</v>
+        <v>8.88999080657959</v>
       </c>
       <c r="EB2">
-        <v>-1.229814529418945</v>
+        <v>-0.2920757830142975</v>
       </c>
       <c r="EC2">
-        <v>-0.5893256664276123</v>
+        <v>-0.2137916684150696</v>
       </c>
       <c r="ED2">
-        <v>-1.648979783058167</v>
+        <v>-2.077893495559692</v>
       </c>
       <c r="EE2">
-        <v>0.3620111644268036</v>
+        <v>1.321346759796143</v>
       </c>
       <c r="EF2">
-        <v>4.034902095794678</v>
+        <v>4.80450963973999</v>
       </c>
       <c r="EG2">
-        <v>-9.3770751953125</v>
+        <v>-8.035652160644531</v>
       </c>
       <c r="EH2">
-        <v>-21.29253005981445</v>
+        <v>-23.24248886108398</v>
       </c>
       <c r="EI2">
-        <v>-5.887042999267578</v>
+        <v>-4.846057891845703</v>
       </c>
       <c r="EJ2">
-        <v>-2.53436279296875</v>
+        <v>-3.538320064544678</v>
       </c>
       <c r="EK2">
-        <v>2.821594476699829</v>
+        <v>2.912406206130981</v>
       </c>
       <c r="EL2">
-        <v>-1.284367799758911</v>
+        <v>-0.3134387731552124</v>
       </c>
       <c r="EM2">
-        <v>-1.941947937011719</v>
+        <v>-2.140550374984741</v>
       </c>
       <c r="EN2">
-        <v>10.21836280822754</v>
+        <v>10.72673034667969</v>
       </c>
       <c r="EO2">
-        <v>-7.475336074829102</v>
+        <v>-6.991137027740479</v>
       </c>
       <c r="EP2">
-        <v>-6.915413856506348</v>
+        <v>-6.825759887695312</v>
       </c>
       <c r="EQ2">
-        <v>2.086743831634521</v>
+        <v>2.264147043228149</v>
       </c>
       <c r="ER2">
-        <v>-0.7524015307426453</v>
+        <v>-1.250557899475098</v>
       </c>
       <c r="ES2">
-        <v>-18.65799713134766</v>
+        <v>-19.91644477844238</v>
       </c>
       <c r="ET2">
-        <v>0.9455313086509705</v>
+        <v>2.656535148620605</v>
       </c>
       <c r="EU2">
-        <v>-6.364392280578613</v>
+        <v>-7.110000133514404</v>
       </c>
       <c r="EV2">
-        <v>-4.277563571929932</v>
+        <v>-2.714813232421875</v>
       </c>
       <c r="EW2">
-        <v>-5.40455961227417</v>
+        <v>-4.965939044952393</v>
       </c>
       <c r="EX2">
-        <v>-6.705180168151855</v>
+        <v>-5.342410564422607</v>
       </c>
       <c r="EY2">
-        <v>0.5388090014457703</v>
+        <v>1.589013576507568</v>
       </c>
       <c r="EZ2">
-        <v>-11.27877044677734</v>
+        <v>-11.50541877746582</v>
       </c>
       <c r="FA2">
-        <v>0.04021359235048294</v>
+        <v>0.7056998610496521</v>
       </c>
       <c r="FB2">
-        <v>-2.303303956985474</v>
+        <v>-1.303673148155212</v>
       </c>
       <c r="FC2">
-        <v>-4.699295520782471</v>
+        <v>-4.28607177734375</v>
       </c>
       <c r="FD2">
-        <v>-0.7524328231811523</v>
+        <v>0.1204678192734718</v>
       </c>
       <c r="FE2">
-        <v>-0.01636658050119877</v>
+        <v>-0.8110987544059753</v>
       </c>
       <c r="FF2">
-        <v>-17.08393669128418</v>
+        <v>-17.57971000671387</v>
       </c>
       <c r="FG2">
-        <v>-5.253077983856201</v>
+        <v>-4.555902481079102</v>
       </c>
       <c r="FH2">
-        <v>0.3695840537548065</v>
+        <v>-0.6721860766410828</v>
       </c>
       <c r="FI2">
-        <v>0.5372113585472107</v>
+        <v>-0.227829173207283</v>
       </c>
       <c r="FJ2">
-        <v>-4.922042846679688</v>
+        <v>-3.15106987953186</v>
       </c>
       <c r="FK2">
-        <v>-3.934787273406982</v>
+        <v>-4.596385478973389</v>
       </c>
       <c r="FL2">
-        <v>-5.427088260650635</v>
+        <v>-4.392487525939941</v>
       </c>
       <c r="FM2">
-        <v>-0.004262398928403854</v>
+        <v>-1.230172872543335</v>
       </c>
       <c r="FN2">
-        <v>-3.521109580993652</v>
+        <v>-3.719494104385376</v>
       </c>
       <c r="FO2">
-        <v>0.8038799166679382</v>
+        <v>1.316816091537476</v>
       </c>
       <c r="FP2">
-        <v>0.9622288346290588</v>
+        <v>1.18872594833374</v>
       </c>
       <c r="FQ2">
-        <v>-0.3749319314956665</v>
+        <v>0.6370786428451538</v>
       </c>
       <c r="FR2">
-        <v>-0.4979144632816315</v>
+        <v>0.3404287993907928</v>
       </c>
       <c r="FS2">
-        <v>-0.7459685206413269</v>
+        <v>-0.04695482552051544</v>
       </c>
       <c r="FT2">
-        <v>-0.6179295182228088</v>
+        <v>0.4386819899082184</v>
       </c>
       <c r="FU2">
-        <v>-2.647875308990479</v>
+        <v>-2.569997072219849</v>
       </c>
       <c r="FV2">
-        <v>-2.85700511932373</v>
+        <v>-2.188290357589722</v>
       </c>
       <c r="FW2">
-        <v>1.349481582641602</v>
+        <v>1.909003138542175</v>
       </c>
       <c r="FX2">
-        <v>0.2666502892971039</v>
+        <v>0.2712296843528748</v>
       </c>
       <c r="FY2">
-        <v>-0.5088711380958557</v>
+        <v>0.5511333346366882</v>
       </c>
       <c r="FZ2">
-        <v>0.342085063457489</v>
+        <v>0.7053400874137878</v>
       </c>
       <c r="GA2">
-        <v>-7.750197410583496</v>
+        <v>-7.664154529571533</v>
       </c>
       <c r="GB2">
-        <v>1.825783491134644</v>
+        <v>1.721668839454651</v>
       </c>
       <c r="GC2">
-        <v>-5.934298992156982</v>
+        <v>-5.816937923431396</v>
       </c>
       <c r="GD2">
-        <v>-10.46570491790771</v>
+        <v>-9.654643058776855</v>
       </c>
       <c r="GE2">
-        <v>-1.1028733253479</v>
+        <v>-0.1915838569402695</v>
       </c>
       <c r="GF2">
-        <v>3.864097356796265</v>
+        <v>1.864894986152649</v>
       </c>
       <c r="GG2">
-        <v>-9.041868209838867</v>
+        <v>-9.672682762145996</v>
       </c>
       <c r="GH2">
-        <v>2.864634275436401</v>
+        <v>2.020962476730347</v>
       </c>
       <c r="GI2">
-        <v>-7.991759777069092</v>
+        <v>-7.035601615905762</v>
       </c>
       <c r="GJ2">
-        <v>-0.9660766124725342</v>
+        <v>-2.58699369430542</v>
       </c>
       <c r="GK2">
-        <v>-7.846692562103271</v>
+        <v>-8.197566986083984</v>
       </c>
       <c r="GL2">
-        <v>-4.99860954284668</v>
+        <v>-5.391513824462891</v>
       </c>
       <c r="GM2">
-        <v>-13.71309280395508</v>
+        <v>-14.58342266082764</v>
       </c>
       <c r="GN2">
-        <v>-12.90557861328125</v>
+        <v>-12.28498554229736</v>
       </c>
       <c r="GO2">
-        <v>3.964053630828857</v>
+        <v>5.222394943237305</v>
       </c>
       <c r="GP2">
-        <v>0.6841474771499634</v>
+        <v>1.324787139892578</v>
       </c>
       <c r="GQ2">
-        <v>1.940520882606506</v>
+        <v>1.298870086669922</v>
       </c>
       <c r="GR2">
-        <v>-1.409614562988281</v>
+        <v>-1.580520629882812</v>
       </c>
       <c r="GS2">
-        <v>-1.382444739341736</v>
+        <v>-0.7413381934165955</v>
       </c>
       <c r="GT2">
-        <v>1.646708011627197</v>
+        <v>1.134798884391785</v>
       </c>
       <c r="GU2">
-        <v>-0.7922505736351013</v>
+        <v>-0.9851234555244446</v>
       </c>
       <c r="GV2">
-        <v>1.358485698699951</v>
+        <v>1.461670160293579</v>
       </c>
       <c r="GW2">
-        <v>-3.743237495422363</v>
+        <v>-2.259497404098511</v>
       </c>
       <c r="GX2">
-        <v>-0.354473352432251</v>
+        <v>-0.5974176526069641</v>
       </c>
       <c r="GY2">
-        <v>-3.874901533126831</v>
+        <v>-3.265903472900391</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/PSU Bank.xlsx
+++ b/static/Models/Classification/Equation/PSU Bank.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.972535133361816</v>
+        <v>-2.88367772102356</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.62444019317627</v>
+        <v>-6.537714004516602</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.750686883926392</v>
+        <v>-3.759557008743286</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.839447498321533</v>
+        <v>-5.294808387756348</v>
       </c>
       <c r="F2" t="n">
-        <v>1.611809372901917</v>
+        <v>1.649862885475159</v>
       </c>
       <c r="G2" t="n">
-        <v>1.898179411888123</v>
+        <v>2.867836713790894</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.583507895469666</v>
+        <v>-1.275399088859558</v>
       </c>
       <c r="I2" t="n">
-        <v>4.013645648956299</v>
+        <v>3.630719184875488</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.460554361343384</v>
+        <v>-4.01567268371582</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7086616158485413</v>
+        <v>-0.03477833420038223</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6160687804222107</v>
+        <v>-0.02097139693796635</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.781869411468506</v>
+        <v>-2.211626291275024</v>
       </c>
       <c r="N2" t="n">
-        <v>2.172531843185425</v>
+        <v>1.665345430374146</v>
       </c>
       <c r="O2" t="n">
-        <v>4.521157741546631</v>
+        <v>4.84038257598877</v>
       </c>
       <c r="P2" t="n">
-        <v>1.613291501998901</v>
+        <v>2.593102931976318</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.45362663269043</v>
+        <v>14.03652381896973</v>
       </c>
       <c r="R2" t="n">
-        <v>1.377782106399536</v>
+        <v>0.7914510369300842</v>
       </c>
       <c r="S2" t="n">
-        <v>-7.080518245697021</v>
+        <v>-7.479274749755859</v>
       </c>
       <c r="T2" t="n">
-        <v>-7.108951091766357</v>
+        <v>-7.235772132873535</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.87150573730469</v>
+        <v>-20.49136352539062</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9293150901794434</v>
+        <v>0.6949012279510498</v>
       </c>
       <c r="W2" t="n">
-        <v>1.833389163017273</v>
+        <v>1.680152177810669</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.7770508527755737</v>
+        <v>-0.6570820212364197</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.979498863220215</v>
+        <v>8.784250259399414</v>
       </c>
       <c r="Z2" t="n">
-        <v>-5.212610244750977</v>
+        <v>-5.525417804718018</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8584691882133484</v>
+        <v>-1.33652663230896</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.225175142288208</v>
+        <v>-2.332429170608521</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8622501492500305</v>
+        <v>0.5748369097709656</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.8587237596511841</v>
+        <v>-1.027784943580627</v>
       </c>
       <c r="AE2" t="n">
-        <v>-3.472593307495117</v>
+        <v>-3.836584806442261</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.302008509635925</v>
+        <v>-0.8424327969551086</v>
       </c>
       <c r="AG2" t="n">
-        <v>-4.169274806976318</v>
+        <v>-4.730616569519043</v>
       </c>
       <c r="AH2" t="n">
-        <v>-25.88195991516113</v>
+        <v>-26.27830696105957</v>
       </c>
       <c r="AI2" t="n">
-        <v>14.03604888916016</v>
+        <v>14.88825988769531</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.05760742351412773</v>
+        <v>-0.1733057796955109</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.630535840988159</v>
+        <v>2.175540208816528</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.7399600744247437</v>
+        <v>1.778709173202515</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.5453194975852966</v>
+        <v>-0.4301125705242157</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.819899559020996</v>
+        <v>7.056386470794678</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.106552839279175</v>
+        <v>-1.064021229743958</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.3475338220596313</v>
+        <v>-0.9779753088951111</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.7413663864135742</v>
+        <v>1.525589108467102</v>
       </c>
       <c r="AR2" t="n">
-        <v>6.1741042137146</v>
+        <v>5.703689098358154</v>
       </c>
       <c r="AS2" t="n">
-        <v>-12.34202480316162</v>
+        <v>-13.03817367553711</v>
       </c>
       <c r="AT2" t="n">
-        <v>-3.745989322662354</v>
+        <v>-3.255139827728271</v>
       </c>
       <c r="AU2" t="n">
-        <v>-2.576501369476318</v>
+        <v>-2.144303560256958</v>
       </c>
       <c r="AV2" t="n">
-        <v>4.559289932250977</v>
+        <v>4.036453247070312</v>
       </c>
       <c r="AW2" t="n">
-        <v>-6.701202869415283</v>
+        <v>-6.269269943237305</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.3028008639812469</v>
+        <v>-0.9404202103614807</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.09964810311794281</v>
+        <v>-1.013261318206787</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.981397151947021</v>
+        <v>7.00386905670166</v>
       </c>
       <c r="BA2" t="n">
-        <v>-9.182170867919922</v>
+        <v>-8.748063087463379</v>
       </c>
       <c r="BB2" t="n">
-        <v>-4.968980312347412</v>
+        <v>-4.652050495147705</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.03167352825403214</v>
+        <v>-0.6678924560546875</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.3348129689693451</v>
+        <v>-0.4201850891113281</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.755070686340332</v>
+        <v>-1.182740449905396</v>
       </c>
       <c r="BF2" t="n">
-        <v>-6.316004276275635</v>
+        <v>-6.117475509643555</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.1010067090392113</v>
+        <v>-0.3108327984809875</v>
       </c>
       <c r="BH2" t="n">
-        <v>-3.304402589797974</v>
+        <v>-2.842872619628906</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.0080646276474</v>
+        <v>-1.271308183670044</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-11.75581836700439</v>
+        <v>-11.26986789703369</v>
       </c>
       <c r="BK2" t="n">
-        <v>-3.171974897384644</v>
+        <v>-2.843870878219604</v>
       </c>
       <c r="BL2" t="n">
-        <v>-5.175414085388184</v>
+        <v>-6.267782211303711</v>
       </c>
       <c r="BM2" t="n">
-        <v>-4.279819965362549</v>
+        <v>-3.978002071380615</v>
       </c>
       <c r="BN2" t="n">
-        <v>3.811704158782959</v>
+        <v>3.960248470306396</v>
       </c>
       <c r="BO2" t="n">
-        <v>-4.966996192932129</v>
+        <v>-4.947247982025146</v>
       </c>
       <c r="BP2" t="n">
-        <v>-7.01922607421875</v>
+        <v>-7.283631801605225</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.149638414382935</v>
+        <v>2.561772584915161</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.251084953546524</v>
+        <v>-0.0601150207221508</v>
       </c>
       <c r="BS2" t="n">
-        <v>4.461171627044678</v>
+        <v>3.58467435836792</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.8057377338409424</v>
+        <v>-1.24899685382843</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.7158737182617188</v>
+        <v>0.2578286528587341</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.523337185382843</v>
+        <v>0.4242158234119415</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.1112826988101006</v>
+        <v>0.2905403077602386</v>
       </c>
       <c r="BX2" t="n">
-        <v>-10.82749366760254</v>
+        <v>-11.31982707977295</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.048432588577271</v>
+        <v>-1.508753299713135</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-2.537118673324585</v>
+        <v>-3.113190174102783</v>
       </c>
       <c r="CA2" t="n">
-        <v>-4.687085628509521</v>
+        <v>-4.272815704345703</v>
       </c>
       <c r="CB2" t="n">
-        <v>-7.452917575836182</v>
+        <v>-7.7962327003479</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.450437545776367</v>
+        <v>1.15956723690033</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.03047421760857105</v>
+        <v>-0.07439368218183517</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.239808797836304</v>
+        <v>2.476684093475342</v>
       </c>
       <c r="CF2" t="n">
-        <v>-5.440622329711914</v>
+        <v>-5.876968860626221</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.2583516240119934</v>
+        <v>0.9269876480102539</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.8933751583099365</v>
+        <v>-0.9665749073028564</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.223984003067017</v>
+        <v>1.0516357421875</v>
       </c>
       <c r="CJ2" t="n">
-        <v>5.899573802947998</v>
+        <v>6.155380725860596</v>
       </c>
       <c r="CK2" t="n">
-        <v>-4.054353713989258</v>
+        <v>-4.077739238739014</v>
       </c>
       <c r="CL2" t="n">
-        <v>2.406681299209595</v>
+        <v>2.082897186279297</v>
       </c>
       <c r="CM2" t="n">
-        <v>7.162894725799561</v>
+        <v>6.936887741088867</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.5527879595756531</v>
+        <v>-0.02410114929080009</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.06897015124559402</v>
+        <v>-0.01023207232356071</v>
       </c>
       <c r="CP2" t="n">
-        <v>4.612669467926025</v>
+        <v>4.20172643661499</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.94478440284729</v>
+        <v>-0.4840271472930908</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.888847827911377</v>
+        <v>1.244945168495178</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.886433720588684</v>
+        <v>1.782397031784058</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.906628131866455</v>
+        <v>1.610255360603333</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.017996072769165</v>
+        <v>3.002225399017334</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.068388342857361</v>
+        <v>1.230928659439087</v>
       </c>
       <c r="CW2" t="n">
-        <v>-2.188031196594238</v>
+        <v>-1.954485535621643</v>
       </c>
       <c r="CX2" t="n">
-        <v>-1.311492800712585</v>
+        <v>-1.660891890525818</v>
       </c>
       <c r="CY2" t="n">
-        <v>3.791606664657593</v>
+        <v>4.200438022613525</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.1594672352075577</v>
+        <v>-0.7373805046081543</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.06231558695435524</v>
+        <v>0.6229312419891357</v>
       </c>
       <c r="DB2" t="n">
-        <v>-6.542425632476807</v>
+        <v>-6.340718269348145</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.1009016185998917</v>
+        <v>0.3147822320461273</v>
       </c>
       <c r="DD2" t="n">
-        <v>-23.74304008483887</v>
+        <v>-24.16136360168457</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.312793970108032</v>
+        <v>1.056288480758667</v>
       </c>
       <c r="DF2" t="n">
         <v>3.435830593109131</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.560486435890198</v>
+        <v>2.532289028167725</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.444754958152771</v>
+        <v>0.224299892783165</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.094664931297302</v>
+        <v>1.46975040435791</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-7.950374603271484</v>
+        <v>-7.806252956390381</v>
       </c>
       <c r="DK2" t="n">
-        <v>-9.90062141418457</v>
+        <v>-9.712859153747559</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.851060390472412</v>
+        <v>3.485408067703247</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.3136614263057709</v>
+        <v>1.095567464828491</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.3845265209674835</v>
+        <v>0.1007837131619453</v>
       </c>
       <c r="DO2" t="n">
-        <v>-5.110813140869141</v>
+        <v>-4.772491931915283</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.9050100445747375</v>
+        <v>0.8537017703056335</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.016547918319702</v>
+        <v>0.8011509776115417</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.07722930610179901</v>
+        <v>-0.233428031206131</v>
       </c>
       <c r="DS2" t="n">
-        <v>-16.12445068359375</v>
+        <v>-16.91407775878906</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.428826570510864</v>
+        <v>1.511777639389038</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.4469355046749115</v>
+        <v>0.9247532486915588</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.7293528318405151</v>
+        <v>0.1616620421409607</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.623288989067078</v>
+        <v>0.9669533967971802</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.174698352813721</v>
+        <v>0.9715694785118103</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.366297602653503</v>
+        <v>0.1848479211330414</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.019221544265747</v>
+        <v>1.467049837112427</v>
       </c>
       <c r="EA2" t="n">
-        <v>8.69734001159668</v>
+        <v>9.717132568359375</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.06599204242229462</v>
+        <v>-0.1634994298219681</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.5526870489120483</v>
+        <v>-0.9822772741317749</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.869826793670654</v>
+        <v>-2.074073314666748</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.548580408096313</v>
+        <v>1.369814157485962</v>
       </c>
       <c r="EF2" t="n">
-        <v>4.817162036895752</v>
+        <v>3.987601757049561</v>
       </c>
       <c r="EG2" t="n">
-        <v>-8.190472602844238</v>
+        <v>-8.316488265991211</v>
       </c>
       <c r="EH2" t="n">
-        <v>-22.98051834106445</v>
+        <v>-23.46950912475586</v>
       </c>
       <c r="EI2" t="n">
-        <v>-4.560722827911377</v>
+        <v>-5.136033535003662</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-3.152249097824097</v>
+        <v>-3.613303422927856</v>
       </c>
       <c r="EK2" t="n">
-        <v>3.149734973907471</v>
+        <v>3.022529125213623</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.09421128034591675</v>
+        <v>-0.193838357925415</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.928386926651001</v>
+        <v>-1.471052050590515</v>
       </c>
       <c r="EN2" t="n">
-        <v>10.53178024291992</v>
+        <v>9.872300148010254</v>
       </c>
       <c r="EO2" t="n">
-        <v>-7.083829879760742</v>
+        <v>-6.386066913604736</v>
       </c>
       <c r="EP2" t="n">
-        <v>-7.108925342559814</v>
+        <v>-7.481818675994873</v>
       </c>
       <c r="EQ2" t="n">
-        <v>2.448560237884521</v>
+        <v>2.507640838623047</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.142137050628662</v>
+        <v>-0.6983090043067932</v>
       </c>
       <c r="ES2" t="n">
-        <v>-19.66833305358887</v>
+        <v>-19.77153587341309</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.471982479095459</v>
+        <v>2.451032638549805</v>
       </c>
       <c r="EU2" t="n">
-        <v>-7.118705749511719</v>
+        <v>-6.937795162200928</v>
       </c>
       <c r="EV2" t="n">
-        <v>-2.848286867141724</v>
+        <v>-3.004186630249023</v>
       </c>
       <c r="EW2" t="n">
-        <v>-4.682926654815674</v>
+        <v>-5.732016086578369</v>
       </c>
       <c r="EX2" t="n">
-        <v>-5.619070053100586</v>
+        <v>-5.396709442138672</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.860270261764526</v>
+        <v>1.441660046577454</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-11.67279529571533</v>
+        <v>-12.15447235107422</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.774279773235321</v>
+        <v>1.773476719856262</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.093790054321289</v>
+        <v>-1.334662318229675</v>
       </c>
       <c r="FC2" t="n">
-        <v>-4.176788806915283</v>
+        <v>-4.53231143951416</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.13172946870327</v>
+        <v>-0.6945793032646179</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.3912106454372406</v>
+        <v>-0.9685313105583191</v>
       </c>
       <c r="FF2" t="n">
-        <v>-17.2409610748291</v>
+        <v>-17.86592102050781</v>
       </c>
       <c r="FG2" t="n">
-        <v>-4.369453430175781</v>
+        <v>-4.728899955749512</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.8634065389633179</v>
+        <v>-0.7257658243179321</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.2574602365493774</v>
+        <v>-0.5194034576416016</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-3.323419570922852</v>
+        <v>-2.466980218887329</v>
       </c>
       <c r="FK2" t="n">
-        <v>-4.747166633605957</v>
+        <v>-5.237474918365479</v>
       </c>
       <c r="FL2" t="n">
-        <v>-4.188957214355469</v>
+        <v>-3.94393253326416</v>
       </c>
       <c r="FM2" t="n">
-        <v>-1.022349715232849</v>
+        <v>-0.3667539060115814</v>
       </c>
       <c r="FN2" t="n">
-        <v>-3.860121965408325</v>
+        <v>-4.778041839599609</v>
       </c>
       <c r="FO2" t="n">
-        <v>1.142730832099915</v>
+        <v>0.7528795599937439</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.534844398498535</v>
+        <v>0.8336836099624634</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.8419893383979797</v>
+        <v>0.8115390539169312</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.5592275261878967</v>
+        <v>0.4140014052391052</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.1948008239269257</v>
+        <v>-0.1775197237730026</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.6529247760772705</v>
+        <v>0.3823902606964111</v>
       </c>
       <c r="FU2" t="n">
-        <v>-2.357664346694946</v>
+        <v>-2.456960916519165</v>
       </c>
       <c r="FV2" t="n">
-        <v>-1.939659476280212</v>
+        <v>-2.157377958297729</v>
       </c>
       <c r="FW2" t="n">
-        <v>2.119566679000854</v>
+        <v>1.757380843162537</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.507590115070343</v>
+        <v>0.1259431391954422</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.2236271500587463</v>
+        <v>-0.255071610212326</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.280455619096756</v>
+        <v>-0.2059651017189026</v>
       </c>
       <c r="GA2" t="n">
-        <v>-7.844303607940674</v>
+        <v>-8.337072372436523</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.404362320899963</v>
+        <v>1.276426076889038</v>
       </c>
       <c r="GC2" t="n">
-        <v>-5.63645601272583</v>
+        <v>-5.064359188079834</v>
       </c>
       <c r="GD2" t="n">
-        <v>-9.422918319702148</v>
+        <v>-9.214879035949707</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.02521052211523056</v>
+        <v>-0.07348473370075226</v>
       </c>
       <c r="GF2" t="n">
-        <v>2.115083694458008</v>
+        <v>1.447488188743591</v>
       </c>
       <c r="GG2" t="n">
-        <v>-9.353381156921387</v>
+        <v>-9.466856002807617</v>
       </c>
       <c r="GH2" t="n">
-        <v>2.236131191253662</v>
+        <v>1.861639022827148</v>
       </c>
       <c r="GI2" t="n">
-        <v>-6.780938148498535</v>
+        <v>-7.174930095672607</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-2.832577705383301</v>
+        <v>-3.378243684768677</v>
       </c>
       <c r="GK2" t="n">
-        <v>-8.63215446472168</v>
+        <v>-9.221142768859863</v>
       </c>
       <c r="GL2" t="n">
-        <v>-5.162689208984375</v>
+        <v>-4.259949207305908</v>
       </c>
       <c r="GM2" t="n">
-        <v>-14.297682762146</v>
+        <v>-14.74935913085938</v>
       </c>
       <c r="GN2" t="n">
-        <v>-12.05609893798828</v>
+        <v>-11.04080867767334</v>
       </c>
       <c r="GO2" t="n">
-        <v>5.214430332183838</v>
+        <v>5.496566772460938</v>
       </c>
       <c r="GP2" t="n">
-        <v>1.565052032470703</v>
+        <v>1.221191167831421</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.150406002998352</v>
+        <v>0.7092675566673279</v>
       </c>
       <c r="GR2" t="n">
-        <v>-1.085342884063721</v>
+        <v>-1.003065943717957</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.9889481067657471</v>
+        <v>-1.591063976287842</v>
       </c>
       <c r="GT2" t="n">
-        <v>1.396608471870422</v>
+        <v>1.083844780921936</v>
       </c>
       <c r="GU2" t="n">
-        <v>-1.235790491104126</v>
+        <v>-0.8174071907997131</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.357234001159668</v>
+        <v>1.048089265823364</v>
       </c>
       <c r="GW2" t="n">
-        <v>-2.023404359817505</v>
+        <v>-2.41178297996521</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.3652710020542145</v>
+        <v>-0.6802666783332825</v>
       </c>
       <c r="GY2" t="n">
-        <v>-3.035716772079468</v>
+        <v>-3.138722658157349</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/PSU Bank.xlsx
+++ b/static/Models/Classification/Equation/PSU Bank.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.88367772102356</v>
+        <v>-3.124733448028564</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.537714004516602</v>
+        <v>-6.533545017242432</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.759557008743286</v>
+        <v>-4.397151470184326</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.294808387756348</v>
+        <v>-4.55686616897583</v>
       </c>
       <c r="F2" t="n">
-        <v>1.649862885475159</v>
+        <v>1.758065819740295</v>
       </c>
       <c r="G2" t="n">
-        <v>2.867836713790894</v>
+        <v>3.319574594497681</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.275399088859558</v>
+        <v>-1.927241802215576</v>
       </c>
       <c r="I2" t="n">
-        <v>3.630719184875488</v>
+        <v>3.369527339935303</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.01567268371582</v>
+        <v>-4.309637546539307</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.03477833420038223</v>
+        <v>-0.2254569381475449</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.02097139693796635</v>
+        <v>0.4930561780929565</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.211626291275024</v>
+        <v>-2.045569896697998</v>
       </c>
       <c r="N2" t="n">
-        <v>1.665345430374146</v>
+        <v>1.106061816215515</v>
       </c>
       <c r="O2" t="n">
-        <v>4.84038257598877</v>
+        <v>4.510254383087158</v>
       </c>
       <c r="P2" t="n">
-        <v>2.593102931976318</v>
+        <v>2.263930320739746</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.03652381896973</v>
+        <v>14.13579082489014</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7914510369300842</v>
+        <v>0.7875946760177612</v>
       </c>
       <c r="S2" t="n">
-        <v>-7.479274749755859</v>
+        <v>-7.909030914306641</v>
       </c>
       <c r="T2" t="n">
-        <v>-7.235772132873535</v>
+        <v>-7.365102767944336</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.49136352539062</v>
+        <v>-21.07927513122559</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6949012279510498</v>
+        <v>0.3750431537628174</v>
       </c>
       <c r="W2" t="n">
-        <v>1.680152177810669</v>
+        <v>1.270565271377563</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.6570820212364197</v>
+        <v>-1.207841157913208</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.784250259399414</v>
+        <v>9.188796997070312</v>
       </c>
       <c r="Z2" t="n">
-        <v>-5.525417804718018</v>
+        <v>-4.791728496551514</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.33652663230896</v>
+        <v>-1.516940712928772</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.332429170608521</v>
+        <v>-2.616442918777466</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5748369097709656</v>
+        <v>0.2185914367437363</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.027784943580627</v>
+        <v>-1.226779341697693</v>
       </c>
       <c r="AE2" t="n">
-        <v>-3.836584806442261</v>
+        <v>-3.623327493667603</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.8424327969551086</v>
+        <v>-0.9022782444953918</v>
       </c>
       <c r="AG2" t="n">
-        <v>-4.730616569519043</v>
+        <v>-5.134583950042725</v>
       </c>
       <c r="AH2" t="n">
-        <v>-26.27830696105957</v>
+        <v>-25.99981117248535</v>
       </c>
       <c r="AI2" t="n">
-        <v>14.88825988769531</v>
+        <v>14.37164402008057</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.1733057796955109</v>
+        <v>0.2138537615537643</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.175540208816528</v>
+        <v>1.937722444534302</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.778709173202515</v>
+        <v>1.336835265159607</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.4301125705242157</v>
+        <v>-0.7160335779190063</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.056386470794678</v>
+        <v>7.545202732086182</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.064021229743958</v>
+        <v>-0.5628086924552917</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.9779753088951111</v>
+        <v>-1.212329268455505</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.525589108467102</v>
+        <v>1.14609694480896</v>
       </c>
       <c r="AR2" t="n">
-        <v>5.703689098358154</v>
+        <v>5.862460613250732</v>
       </c>
       <c r="AS2" t="n">
-        <v>-13.03817367553711</v>
+        <v>-12.62727355957031</v>
       </c>
       <c r="AT2" t="n">
-        <v>-3.255139827728271</v>
+        <v>-3.226896524429321</v>
       </c>
       <c r="AU2" t="n">
-        <v>-2.144303560256958</v>
+        <v>-1.975624084472656</v>
       </c>
       <c r="AV2" t="n">
-        <v>4.036453247070312</v>
+        <v>4.332458019256592</v>
       </c>
       <c r="AW2" t="n">
-        <v>-6.269269943237305</v>
+        <v>-5.945748329162598</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.9404202103614807</v>
+        <v>-1.077537417411804</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.013261318206787</v>
+        <v>-1.468762993812561</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7.00386905670166</v>
+        <v>7.035537242889404</v>
       </c>
       <c r="BA2" t="n">
-        <v>-8.748063087463379</v>
+        <v>-8.466218948364258</v>
       </c>
       <c r="BB2" t="n">
-        <v>-4.652050495147705</v>
+        <v>-5.264043807983398</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.6678924560546875</v>
+        <v>-0.01260982546955347</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.4201850891113281</v>
+        <v>-0.6059174537658691</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.182740449905396</v>
+        <v>-0.9588674306869507</v>
       </c>
       <c r="BF2" t="n">
-        <v>-6.117475509643555</v>
+        <v>-6.811434268951416</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.3108327984809875</v>
+        <v>-0.5251702666282654</v>
       </c>
       <c r="BH2" t="n">
-        <v>-2.842872619628906</v>
+        <v>-3.22881555557251</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.271308183670044</v>
+        <v>-1.442621469497681</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-11.26986789703369</v>
+        <v>-11.16788578033447</v>
       </c>
       <c r="BK2" t="n">
-        <v>-2.843870878219604</v>
+        <v>-2.867042064666748</v>
       </c>
       <c r="BL2" t="n">
-        <v>-6.267782211303711</v>
+        <v>-6.426953315734863</v>
       </c>
       <c r="BM2" t="n">
-        <v>-3.978002071380615</v>
+        <v>-4.560200214385986</v>
       </c>
       <c r="BN2" t="n">
-        <v>3.960248470306396</v>
+        <v>3.314772129058838</v>
       </c>
       <c r="BO2" t="n">
-        <v>-4.947247982025146</v>
+        <v>-4.44337797164917</v>
       </c>
       <c r="BP2" t="n">
-        <v>-7.283631801605225</v>
+        <v>-7.056564331054688</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.561772584915161</v>
+        <v>2.429924249649048</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.0601150207221508</v>
+        <v>-0.4705269336700439</v>
       </c>
       <c r="BS2" t="n">
-        <v>3.58467435836792</v>
+        <v>3.96174955368042</v>
       </c>
       <c r="BT2" t="n">
-        <v>-1.24899685382843</v>
+        <v>-1.421146869659424</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.2578286528587341</v>
+        <v>0.06761360913515091</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.4242158234119415</v>
+        <v>0.8484845161437988</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.2905403077602386</v>
+        <v>0.05767151713371277</v>
       </c>
       <c r="BX2" t="n">
-        <v>-11.31982707977295</v>
+        <v>-11.56774234771729</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.508753299713135</v>
+        <v>-1.134354948997498</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-3.113190174102783</v>
+        <v>-3.427965402603149</v>
       </c>
       <c r="CA2" t="n">
-        <v>-4.272815704345703</v>
+        <v>-3.956432819366455</v>
       </c>
       <c r="CB2" t="n">
-        <v>-7.7962327003479</v>
+        <v>-7.2455735206604</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.15956723690033</v>
+        <v>0.9364526867866516</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.07439368218183517</v>
+        <v>0.3753752708435059</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.476684093475342</v>
+        <v>2.798290729522705</v>
       </c>
       <c r="CF2" t="n">
-        <v>-5.876968860626221</v>
+        <v>-5.556939601898193</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.9269876480102539</v>
+        <v>1.34051513671875</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.9665749073028564</v>
+        <v>-1.737236857414246</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.0516357421875</v>
+        <v>0.8181512951850891</v>
       </c>
       <c r="CJ2" t="n">
-        <v>6.155380725860596</v>
+        <v>6.539827346801758</v>
       </c>
       <c r="CK2" t="n">
-        <v>-4.077739238739014</v>
+        <v>-4.245815753936768</v>
       </c>
       <c r="CL2" t="n">
-        <v>2.082897186279297</v>
+        <v>1.889582276344299</v>
       </c>
       <c r="CM2" t="n">
-        <v>6.936887741088867</v>
+        <v>7.259323120117188</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.02410114929080009</v>
+        <v>0.09871478378772736</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.01023207232356071</v>
+        <v>-0.1990539580583572</v>
       </c>
       <c r="CP2" t="n">
-        <v>4.20172643661499</v>
+        <v>4.536689281463623</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.4840271472930908</v>
+        <v>-0.03628585487604141</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.244945168495178</v>
+        <v>1.575402975082397</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.782397031784058</v>
+        <v>1.622943758964539</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.610255360603333</v>
+        <v>1.37060546875</v>
       </c>
       <c r="CU2" t="n">
-        <v>3.002225399017334</v>
+        <v>2.315144777297974</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.230928659439087</v>
+        <v>1.429112076759338</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.954485535621643</v>
+        <v>-2.567003726959229</v>
       </c>
       <c r="CX2" t="n">
-        <v>-1.660891890525818</v>
+        <v>-1.41013514995575</v>
       </c>
       <c r="CY2" t="n">
-        <v>4.200438022613525</v>
+        <v>4.505468845367432</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.7373805046081543</v>
+        <v>-0.8970801830291748</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.6229312419891357</v>
+        <v>1.128301978111267</v>
       </c>
       <c r="DB2" t="n">
-        <v>-6.340718269348145</v>
+        <v>-6.354392528533936</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.3147822320461273</v>
+        <v>-0.02457785978913307</v>
       </c>
       <c r="DD2" t="n">
-        <v>-24.16136360168457</v>
+        <v>-24.34973526000977</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.056288480758667</v>
+        <v>0.9049326181411743</v>
       </c>
       <c r="DF2" t="n">
-        <v>3.435830593109131</v>
+        <v>3.586160898208618</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.532289028167725</v>
+        <v>2.882743120193481</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.224299892783165</v>
+        <v>0.03833756223320961</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.46975040435791</v>
+        <v>1.462866067886353</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-7.806252956390381</v>
+        <v>-8.417960166931152</v>
       </c>
       <c r="DK2" t="n">
-        <v>-9.712859153747559</v>
+        <v>-9.541901588439941</v>
       </c>
       <c r="DL2" t="n">
-        <v>3.485408067703247</v>
+        <v>3.842375040054321</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.095567464828491</v>
+        <v>1.025556921958923</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.1007837131619453</v>
+        <v>-0.1178887858986855</v>
       </c>
       <c r="DO2" t="n">
-        <v>-4.772491931915283</v>
+        <v>-5.043272495269775</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.8537017703056335</v>
+        <v>0.7961425185203552</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.8011509776115417</v>
+        <v>0.6576259732246399</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.233428031206131</v>
+        <v>-0.8647215962409973</v>
       </c>
       <c r="DS2" t="n">
-        <v>-16.91407775878906</v>
+        <v>-16.56364631652832</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.511777639389038</v>
+        <v>0.7409419417381287</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.9247532486915588</v>
+        <v>1.251640439033508</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.1616620421409607</v>
+        <v>0.6458802223205566</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.9669533967971802</v>
+        <v>1.761698365211487</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.9715694785118103</v>
+        <v>0.7619010806083679</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.1848479211330414</v>
+        <v>-0.2095989286899567</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.467049837112427</v>
+        <v>1.891505002975464</v>
       </c>
       <c r="EA2" t="n">
-        <v>9.717132568359375</v>
+        <v>9.288784980773926</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.1634994298219681</v>
+        <v>-0.3620240390300751</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.9822772741317749</v>
+        <v>-0.4709872901439667</v>
       </c>
       <c r="ED2" t="n">
-        <v>-2.074073314666748</v>
+        <v>-2.320093631744385</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.369814157485962</v>
+        <v>1.191785097122192</v>
       </c>
       <c r="EF2" t="n">
-        <v>3.987601757049561</v>
+        <v>3.697147130966187</v>
       </c>
       <c r="EG2" t="n">
-        <v>-8.316488265991211</v>
+        <v>-8.486281394958496</v>
       </c>
       <c r="EH2" t="n">
-        <v>-23.46950912475586</v>
+        <v>-23.58791923522949</v>
       </c>
       <c r="EI2" t="n">
-        <v>-5.136033535003662</v>
+        <v>-5.411190986633301</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-3.613303422927856</v>
+        <v>-2.94383430480957</v>
       </c>
       <c r="EK2" t="n">
-        <v>3.022529125213623</v>
+        <v>2.837228298187256</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.193838357925415</v>
+        <v>-0.2932951152324677</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.471052050590515</v>
+        <v>-0.7149959206581116</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.872300148010254</v>
+        <v>10.04489135742188</v>
       </c>
       <c r="EO2" t="n">
-        <v>-6.386066913604736</v>
+        <v>-5.940568923950195</v>
       </c>
       <c r="EP2" t="n">
-        <v>-7.481818675994873</v>
+        <v>-7.398730754852295</v>
       </c>
       <c r="EQ2" t="n">
-        <v>2.507640838623047</v>
+        <v>2.868044137954712</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.6983090043067932</v>
+        <v>-1.136869668960571</v>
       </c>
       <c r="ES2" t="n">
-        <v>-19.77153587341309</v>
+        <v>-19.4634838104248</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.451032638549805</v>
+        <v>2.410015106201172</v>
       </c>
       <c r="EU2" t="n">
-        <v>-6.937795162200928</v>
+        <v>-6.76548433303833</v>
       </c>
       <c r="EV2" t="n">
-        <v>-3.004186630249023</v>
+        <v>-3.461648464202881</v>
       </c>
       <c r="EW2" t="n">
-        <v>-5.732016086578369</v>
+        <v>-5.518015384674072</v>
       </c>
       <c r="EX2" t="n">
-        <v>-5.396709442138672</v>
+        <v>-5.893877983093262</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.441660046577454</v>
+        <v>1.148672103881836</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-12.15447235107422</v>
+        <v>-12.29055023193359</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.773476719856262</v>
+        <v>1.979946255683899</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.334662318229675</v>
+        <v>-1.519483804702759</v>
       </c>
       <c r="FC2" t="n">
-        <v>-4.53231143951416</v>
+        <v>-4.943299293518066</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.6945793032646179</v>
+        <v>-0.7034708261489868</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.9685313105583191</v>
+        <v>-0.6429184079170227</v>
       </c>
       <c r="FF2" t="n">
-        <v>-17.86592102050781</v>
+        <v>-17.73821067810059</v>
       </c>
       <c r="FG2" t="n">
-        <v>-4.728899955749512</v>
+        <v>-5.308577060699463</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.7257658243179321</v>
+        <v>-0.6827974319458008</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.5194034576416016</v>
+        <v>-1.23248553276062</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-2.466980218887329</v>
+        <v>-2.715433359146118</v>
       </c>
       <c r="FK2" t="n">
-        <v>-5.237474918365479</v>
+        <v>-4.547084808349609</v>
       </c>
       <c r="FL2" t="n">
-        <v>-3.94393253326416</v>
+        <v>-3.324574947357178</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.3667539060115814</v>
+        <v>0.5481500625610352</v>
       </c>
       <c r="FN2" t="n">
-        <v>-4.778041839599609</v>
+        <v>-4.627706527709961</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.7528795599937439</v>
+        <v>0.8755831122398376</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.8336836099624634</v>
+        <v>1.35900890827179</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.8115390539169312</v>
+        <v>0.6843609809875488</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.4140014052391052</v>
+        <v>0.2678354382514954</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.1775197237730026</v>
+        <v>-0.4064288437366486</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.3823902606964111</v>
+        <v>0.1287813782691956</v>
       </c>
       <c r="FU2" t="n">
-        <v>-2.456960916519165</v>
+        <v>-2.596390247344971</v>
       </c>
       <c r="FV2" t="n">
-        <v>-2.157377958297729</v>
+        <v>-2.343541145324707</v>
       </c>
       <c r="FW2" t="n">
-        <v>1.757380843162537</v>
+        <v>1.728036284446716</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.1259431391954422</v>
+        <v>0.1950284093618393</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.255071610212326</v>
+        <v>-0.2930478751659393</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.2059651017189026</v>
+        <v>-0.01170335244387388</v>
       </c>
       <c r="GA2" t="n">
-        <v>-8.337072372436523</v>
+        <v>-8.719566345214844</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.276426076889038</v>
+        <v>1.958887100219727</v>
       </c>
       <c r="GC2" t="n">
-        <v>-5.064359188079834</v>
+        <v>-4.762130260467529</v>
       </c>
       <c r="GD2" t="n">
-        <v>-9.214879035949707</v>
+        <v>-9.55150318145752</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.07348473370075226</v>
+        <v>-0.240578293800354</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.447488188743591</v>
+        <v>1.279123306274414</v>
       </c>
       <c r="GG2" t="n">
-        <v>-9.466856002807617</v>
+        <v>-9.674423217773438</v>
       </c>
       <c r="GH2" t="n">
-        <v>1.861639022827148</v>
+        <v>1.174584746360779</v>
       </c>
       <c r="GI2" t="n">
-        <v>-7.174930095672607</v>
+        <v>-7.655075550079346</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-3.378243684768677</v>
+        <v>-2.789440393447876</v>
       </c>
       <c r="GK2" t="n">
-        <v>-9.221142768859863</v>
+        <v>-9.666955947875977</v>
       </c>
       <c r="GL2" t="n">
-        <v>-4.259949207305908</v>
+        <v>-3.997314929962158</v>
       </c>
       <c r="GM2" t="n">
-        <v>-14.74935913085938</v>
+        <v>-14.21250438690186</v>
       </c>
       <c r="GN2" t="n">
-        <v>-11.04080867767334</v>
+        <v>-11.49375820159912</v>
       </c>
       <c r="GO2" t="n">
-        <v>5.496566772460938</v>
+        <v>5.023210525512695</v>
       </c>
       <c r="GP2" t="n">
-        <v>1.221191167831421</v>
+        <v>0.9731768369674683</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.7092675566673279</v>
+        <v>0.9519854784011841</v>
       </c>
       <c r="GR2" t="n">
-        <v>-1.003065943717957</v>
+        <v>-0.5570948123931885</v>
       </c>
       <c r="GS2" t="n">
-        <v>-1.591063976287842</v>
+        <v>-1.799314022064209</v>
       </c>
       <c r="GT2" t="n">
-        <v>1.083844780921936</v>
+        <v>1.375850915908813</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.8174071907997131</v>
+        <v>-0.8710494637489319</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.048089265823364</v>
+        <v>0.7623074054718018</v>
       </c>
       <c r="GW2" t="n">
-        <v>-2.41178297996521</v>
+        <v>-2.663851499557495</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.6802666783332825</v>
+        <v>-0.9555951356887817</v>
       </c>
       <c r="GY2" t="n">
-        <v>-3.138722658157349</v>
+        <v>-3.35614275932312</v>
       </c>
     </row>
   </sheetData>
